--- a/datos/horarios maestros/Horarios 2025.2 excel.xlsx
+++ b/datos/horarios maestros/Horarios 2025.2 excel.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="4" rupBuild="20416"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="4" rupBuild="20417"/>
   <workbookPr defaultThemeVersion="124226"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\josuefellmann\techcare_project\datos\horarios maestros\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{F784C48F-CF36-4029-9C44-CE522223920A}" xr6:coauthVersionLast="36" xr6:coauthVersionMax="36" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{2AD13729-6C76-4192-9251-2B6A78610E1C}" xr6:coauthVersionLast="36" xr6:coauthVersionMax="36" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="21570" windowHeight="7890" tabRatio="811" firstSheet="11" activeTab="16" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="0" yWindow="0" windowWidth="21570" windowHeight="7890" tabRatio="811" firstSheet="11" activeTab="23" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="I BCH-A" sheetId="2" r:id="rId1"/>
@@ -25,27 +25,26 @@
     <sheet name="8VO-B" sheetId="20" r:id="rId10"/>
     <sheet name="9NO-A" sheetId="22" r:id="rId11"/>
     <sheet name="Disciplina" sheetId="24" r:id="rId12"/>
-    <sheet name="Prof. Edwin" sheetId="26" r:id="rId13"/>
-    <sheet name="Educ. Fisica" sheetId="28" r:id="rId14"/>
-    <sheet name="Prof. Gerardo" sheetId="30" r:id="rId15"/>
-    <sheet name="Prof. Lael" sheetId="36" r:id="rId16"/>
-    <sheet name="Prof. Gisele" sheetId="32" r:id="rId17"/>
-    <sheet name="Ingles" sheetId="34" r:id="rId18"/>
-    <sheet name="Ingles Avanzado" sheetId="38" r:id="rId19"/>
-    <sheet name="Prof. Mayleen" sheetId="40" r:id="rId20"/>
-    <sheet name="Prof. Onelia" sheetId="42" r:id="rId21"/>
-    <sheet name="Prof. Rosario" sheetId="44" r:id="rId22"/>
-    <sheet name="Prof. Ruth" sheetId="46" r:id="rId23"/>
-    <sheet name="Prof. Sara" sheetId="48" r:id="rId24"/>
+    <sheet name="Prof. Gerardo" sheetId="30" r:id="rId13"/>
+    <sheet name="Prof. Edwin" sheetId="26" r:id="rId14"/>
+    <sheet name="Prof. Lael" sheetId="36" r:id="rId15"/>
+    <sheet name="Educ. Fisica" sheetId="28" r:id="rId16"/>
+    <sheet name="Ingles" sheetId="34" r:id="rId17"/>
+    <sheet name="Ingles Avanzado" sheetId="38" r:id="rId18"/>
+    <sheet name="Prof. Onelia" sheetId="42" r:id="rId19"/>
+    <sheet name="Prof. Rosario" sheetId="44" r:id="rId20"/>
+    <sheet name="Prof. Gisele" sheetId="32" r:id="rId21"/>
+    <sheet name="Prof. Ruth" sheetId="46" r:id="rId22"/>
+    <sheet name="Prof. Sara" sheetId="48" r:id="rId23"/>
+    <sheet name="Prof. Mayleen" sheetId="40" r:id="rId24"/>
     <sheet name="Hoja1" sheetId="49" r:id="rId25"/>
   </sheets>
   <calcPr calcId="162913"/>
-  <fileRecoveryPr repairLoad="1"/>
 </workbook>
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1564" uniqueCount="278">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="2003" uniqueCount="284">
   <si>
     <r>
       <rPr>
@@ -3896,49 +3895,67 @@
     <t>Español 9no grado</t>
   </si>
   <si>
-    <t>07:00-07:40</t>
-  </si>
-  <si>
-    <t>07:40-08:20</t>
-  </si>
-  <si>
-    <t>8:25-9:05</t>
-  </si>
-  <si>
-    <t>9:05-9:25</t>
-  </si>
-  <si>
-    <t>9:25-10:05</t>
-  </si>
-  <si>
-    <t>10:05-10:45</t>
-  </si>
-  <si>
-    <t>10:50-11.30</t>
-  </si>
-  <si>
-    <t>11:30-12:10</t>
-  </si>
-  <si>
-    <t>12:10-12:50</t>
-  </si>
-  <si>
-    <t>12:50-13:30</t>
-  </si>
-  <si>
-    <t>13:35-14:15</t>
-  </si>
-  <si>
-    <t>14:15-14:30</t>
-  </si>
-  <si>
-    <t>14:30-15:10</t>
-  </si>
-  <si>
-    <t>15:10-15:50</t>
-  </si>
-  <si>
-    <t>15:55-16:35</t>
+    <t>lunes</t>
+  </si>
+  <si>
+    <t>07:00 07:40</t>
+  </si>
+  <si>
+    <t>07:40 08:20</t>
+  </si>
+  <si>
+    <t>8:25 9:05</t>
+  </si>
+  <si>
+    <t>9:05 9:25</t>
+  </si>
+  <si>
+    <t>9:25 10:05</t>
+  </si>
+  <si>
+    <t>10:05 10:45</t>
+  </si>
+  <si>
+    <t>10:50 11.30</t>
+  </si>
+  <si>
+    <t>11:30 12:10</t>
+  </si>
+  <si>
+    <t>12:10 12:50</t>
+  </si>
+  <si>
+    <t>12:50 13:30</t>
+  </si>
+  <si>
+    <t>13:35 14:15</t>
+  </si>
+  <si>
+    <t>14:15 14:30</t>
+  </si>
+  <si>
+    <t>14:30 15:10</t>
+  </si>
+  <si>
+    <t>15:10 15:50</t>
+  </si>
+  <si>
+    <t>15:55 16:35</t>
+  </si>
+  <si>
+    <t>LUNES</t>
+  </si>
+  <si>
+    <t>MARTES</t>
+  </si>
+  <si>
+    <t>MIÉRCOLES</t>
+  </si>
+  <si>
+    <t>JUEVES</t>
+  </si>
+  <si>
+    <t>VIERNES</t>
   </si>
 </sst>
 </file>
@@ -5416,10 +5433,10 @@
 
 <file path=xl/worksheets/sheet12.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0B00-000000000000}">
-  <dimension ref="A1:L16"/>
+  <dimension ref="A1:L22"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="A18" sqref="A18"/>
+      <selection activeCell="A17" sqref="A17:F22"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="9.33203125" defaultRowHeight="12.75" x14ac:dyDescent="0.2"/>
@@ -5454,7 +5471,7 @@
     </row>
     <row r="2" spans="1:12" ht="28.5" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A2" s="38" t="s">
-        <v>263</v>
+        <v>264</v>
       </c>
       <c r="B2" s="30" t="s">
         <v>198</v>
@@ -5474,7 +5491,7 @@
     </row>
     <row r="3" spans="1:12" ht="28.5" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A3" s="38" t="s">
-        <v>264</v>
+        <v>265</v>
       </c>
       <c r="B3" s="30" t="s">
         <v>215</v>
@@ -5486,7 +5503,7 @@
     </row>
     <row r="4" spans="1:12" ht="28.5" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A4" s="38" t="s">
-        <v>265</v>
+        <v>266</v>
       </c>
       <c r="B4" s="39"/>
       <c r="C4" s="30" t="s">
@@ -5500,7 +5517,7 @@
     </row>
     <row r="5" spans="1:12" ht="28.5" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A5" s="38" t="s">
-        <v>266</v>
+        <v>267</v>
       </c>
       <c r="B5" s="61" t="s">
         <v>224</v>
@@ -5512,7 +5529,7 @@
     </row>
     <row r="6" spans="1:12" ht="30.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A6" s="38" t="s">
-        <v>267</v>
+        <v>268</v>
       </c>
       <c r="B6" s="40"/>
       <c r="C6" s="5" t="s">
@@ -5530,7 +5547,7 @@
     </row>
     <row r="7" spans="1:12" ht="28.5" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A7" s="38" t="s">
-        <v>268</v>
+        <v>269</v>
       </c>
       <c r="B7" s="26" t="s">
         <v>225</v>
@@ -5550,7 +5567,7 @@
     </row>
     <row r="8" spans="1:12" ht="28.5" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A8" s="38" t="s">
-        <v>269</v>
+        <v>270</v>
       </c>
       <c r="B8" s="16" t="s">
         <v>162</v>
@@ -5566,7 +5583,7 @@
     </row>
     <row r="9" spans="1:12" ht="28.5" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A9" s="38" t="s">
-        <v>270</v>
+        <v>271</v>
       </c>
       <c r="B9" s="61" t="s">
         <v>199</v>
@@ -5578,7 +5595,7 @@
     </row>
     <row r="10" spans="1:12" ht="28.5" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A10" s="38" t="s">
-        <v>271</v>
+        <v>272</v>
       </c>
       <c r="B10" s="5" t="s">
         <v>108</v>
@@ -5593,7 +5610,7 @@
     </row>
     <row r="11" spans="1:12" ht="28.5" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A11" s="38" t="s">
-        <v>272</v>
+        <v>273</v>
       </c>
       <c r="B11" s="30" t="s">
         <v>197</v>
@@ -5613,7 +5630,7 @@
     </row>
     <row r="12" spans="1:12" ht="28.5" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A12" s="38" t="s">
-        <v>273</v>
+        <v>274</v>
       </c>
       <c r="B12" s="25" t="s">
         <v>215</v>
@@ -5633,7 +5650,7 @@
     </row>
     <row r="13" spans="1:12" ht="28.5" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A13" s="38" t="s">
-        <v>274</v>
+        <v>275</v>
       </c>
       <c r="B13" s="61" t="s">
         <v>224</v>
@@ -5645,7 +5662,7 @@
     </row>
     <row r="14" spans="1:12" ht="28.5" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A14" s="38" t="s">
-        <v>275</v>
+        <v>276</v>
       </c>
       <c r="B14" s="30" t="s">
         <v>215</v>
@@ -5661,7 +5678,7 @@
     </row>
     <row r="15" spans="1:12" ht="28.5" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A15" s="38" t="s">
-        <v>276</v>
+        <v>277</v>
       </c>
       <c r="B15" s="40"/>
       <c r="C15" s="40"/>
@@ -5671,7 +5688,7 @@
     </row>
     <row r="16" spans="1:12" ht="28.35" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A16" s="38" t="s">
-        <v>277</v>
+        <v>278</v>
       </c>
       <c r="B16" s="30" t="s">
         <v>197</v>
@@ -5687,6 +5704,96 @@
       </c>
       <c r="F16" s="30" t="s">
         <v>197</v>
+      </c>
+    </row>
+    <row r="17" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="A17">
+        <v>1</v>
+      </c>
+      <c r="B17" t="s">
+        <v>263</v>
+      </c>
+      <c r="C17" t="s">
+        <v>165</v>
+      </c>
+      <c r="D17" t="s">
+        <v>168</v>
+      </c>
+      <c r="E17" t="s">
+        <v>166</v>
+      </c>
+      <c r="F17" t="s">
+        <v>167</v>
+      </c>
+    </row>
+    <row r="18" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="B18" s="38" t="s">
+        <v>266</v>
+      </c>
+      <c r="C18" s="38" t="s">
+        <v>265</v>
+      </c>
+      <c r="D18" s="38" t="s">
+        <v>265</v>
+      </c>
+      <c r="E18" s="38" t="s">
+        <v>265</v>
+      </c>
+      <c r="F18" s="38" t="s">
+        <v>265</v>
+      </c>
+    </row>
+    <row r="19" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="B19" s="38" t="s">
+        <v>268</v>
+      </c>
+      <c r="C19" s="38" t="s">
+        <v>270</v>
+      </c>
+      <c r="D19" s="38" t="s">
+        <v>266</v>
+      </c>
+      <c r="E19" s="38" t="s">
+        <v>266</v>
+      </c>
+      <c r="F19" s="38" t="s">
+        <v>270</v>
+      </c>
+    </row>
+    <row r="20" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="B20" s="38" t="s">
+        <v>277</v>
+      </c>
+      <c r="C20" s="38" t="s">
+        <v>272</v>
+      </c>
+      <c r="D20" s="38" t="s">
+        <v>277</v>
+      </c>
+      <c r="E20" s="38" t="s">
+        <v>272</v>
+      </c>
+      <c r="F20" s="38" t="s">
+        <v>272</v>
+      </c>
+    </row>
+    <row r="21" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="C21" s="38" t="s">
+        <v>276</v>
+      </c>
+      <c r="E21" s="38" t="s">
+        <v>277</v>
+      </c>
+      <c r="F21" s="38" t="s">
+        <v>276</v>
+      </c>
+    </row>
+    <row r="22" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="C22" s="38" t="s">
+        <v>277</v>
+      </c>
+      <c r="F22" s="38" t="s">
+        <v>277</v>
       </c>
     </row>
   </sheetData>
@@ -5701,11 +5808,521 @@
 </file>
 
 <file path=xl/worksheets/sheet13.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0E00-000000000000}">
+  <dimension ref="A2:F29"/>
+  <sheetViews>
+    <sheetView topLeftCell="A10" workbookViewId="0">
+      <selection activeCell="A18" sqref="A18:F29"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr baseColWidth="10" defaultColWidth="9.33203125" defaultRowHeight="12.75" x14ac:dyDescent="0.2"/>
+  <cols>
+    <col min="1" max="1" width="15" customWidth="1"/>
+    <col min="2" max="2" width="25.6640625" customWidth="1"/>
+    <col min="3" max="3" width="24.5" customWidth="1"/>
+    <col min="4" max="4" width="24.6640625" customWidth="1"/>
+    <col min="5" max="5" width="24.83203125" customWidth="1"/>
+    <col min="6" max="6" width="26.6640625" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="2" spans="1:6" ht="18.75" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A2" s="27" t="s">
+        <v>222</v>
+      </c>
+      <c r="B2" s="19" t="s">
+        <v>164</v>
+      </c>
+      <c r="C2" s="19" t="s">
+        <v>165</v>
+      </c>
+      <c r="D2" s="19" t="s">
+        <v>168</v>
+      </c>
+      <c r="E2" s="19" t="s">
+        <v>166</v>
+      </c>
+      <c r="F2" s="19" t="s">
+        <v>167</v>
+      </c>
+    </row>
+    <row r="3" spans="1:6" ht="28.5" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A3" s="38" t="s">
+        <v>264</v>
+      </c>
+      <c r="B3" s="9" t="s">
+        <v>59</v>
+      </c>
+      <c r="C3" s="5" t="s">
+        <v>8</v>
+      </c>
+      <c r="D3" s="54" t="s">
+        <v>75</v>
+      </c>
+      <c r="E3" s="8" t="s">
+        <v>76</v>
+      </c>
+      <c r="F3" s="10" t="s">
+        <v>63</v>
+      </c>
+    </row>
+    <row r="4" spans="1:6" ht="28.5" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A4" s="38" t="s">
+        <v>265</v>
+      </c>
+      <c r="B4" s="5" t="s">
+        <v>12</v>
+      </c>
+      <c r="C4" s="54" t="s">
+        <v>59</v>
+      </c>
+      <c r="D4" s="55"/>
+      <c r="E4" s="44" t="s">
+        <v>8</v>
+      </c>
+      <c r="F4" s="8" t="s">
+        <v>65</v>
+      </c>
+    </row>
+    <row r="5" spans="1:6" ht="28.5" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A5" s="38" t="s">
+        <v>266</v>
+      </c>
+      <c r="B5" s="5" t="s">
+        <v>8</v>
+      </c>
+      <c r="C5" s="55"/>
+      <c r="D5" s="11" t="s">
+        <v>67</v>
+      </c>
+      <c r="E5" s="45"/>
+      <c r="F5" s="11" t="s">
+        <v>82</v>
+      </c>
+    </row>
+    <row r="6" spans="1:6" ht="28.5" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A6" s="38" t="s">
+        <v>267</v>
+      </c>
+      <c r="B6" s="7" t="s">
+        <v>18</v>
+      </c>
+      <c r="C6" s="7" t="s">
+        <v>18</v>
+      </c>
+      <c r="D6" s="7" t="s">
+        <v>18</v>
+      </c>
+      <c r="E6" s="7" t="s">
+        <v>18</v>
+      </c>
+      <c r="F6" s="7" t="s">
+        <v>18</v>
+      </c>
+    </row>
+    <row r="7" spans="1:6" ht="28.5" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A7" s="38" t="s">
+        <v>268</v>
+      </c>
+      <c r="B7" s="11" t="s">
+        <v>67</v>
+      </c>
+      <c r="C7" s="5" t="s">
+        <v>12</v>
+      </c>
+      <c r="D7" s="9" t="s">
+        <v>59</v>
+      </c>
+      <c r="E7" s="9" t="s">
+        <v>75</v>
+      </c>
+      <c r="F7" s="5" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="8" spans="1:6" ht="28.5" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A8" s="38" t="s">
+        <v>269</v>
+      </c>
+      <c r="B8" s="9" t="s">
+        <v>75</v>
+      </c>
+      <c r="C8" s="10" t="s">
+        <v>85</v>
+      </c>
+      <c r="D8" s="11" t="s">
+        <v>82</v>
+      </c>
+      <c r="E8" s="5" t="s">
+        <v>12</v>
+      </c>
+      <c r="F8" s="11" t="s">
+        <v>67</v>
+      </c>
+    </row>
+    <row r="9" spans="1:6" ht="28.5" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A9" s="38" t="s">
+        <v>270</v>
+      </c>
+      <c r="B9" s="16" t="s">
+        <v>162</v>
+      </c>
+      <c r="C9" s="11" t="s">
+        <v>82</v>
+      </c>
+      <c r="D9" s="8" t="s">
+        <v>36</v>
+      </c>
+      <c r="E9" s="5" t="s">
+        <v>25</v>
+      </c>
+      <c r="F9" s="8" t="s">
+        <v>90</v>
+      </c>
+    </row>
+    <row r="10" spans="1:6" ht="28.5" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A10" s="38" t="s">
+        <v>271</v>
+      </c>
+      <c r="B10" s="7" t="s">
+        <v>18</v>
+      </c>
+      <c r="C10" s="7" t="s">
+        <v>18</v>
+      </c>
+      <c r="D10" s="7" t="s">
+        <v>18</v>
+      </c>
+      <c r="E10" s="7" t="s">
+        <v>18</v>
+      </c>
+      <c r="F10" s="7" t="s">
+        <v>18</v>
+      </c>
+    </row>
+    <row r="11" spans="1:6" ht="28.5" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A11" s="38" t="s">
+        <v>272</v>
+      </c>
+      <c r="B11" s="9" t="s">
+        <v>39</v>
+      </c>
+      <c r="C11" s="5" t="s">
+        <v>25</v>
+      </c>
+      <c r="D11" s="9" t="s">
+        <v>39</v>
+      </c>
+      <c r="E11" s="8" t="s">
+        <v>36</v>
+      </c>
+      <c r="F11" s="11" t="s">
+        <v>41</v>
+      </c>
+    </row>
+    <row r="12" spans="1:6" ht="28.5" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A12" s="38" t="s">
+        <v>273</v>
+      </c>
+      <c r="B12" s="12"/>
+      <c r="C12" s="54" t="s">
+        <v>39</v>
+      </c>
+      <c r="D12" s="54" t="s">
+        <v>96</v>
+      </c>
+      <c r="E12" s="12"/>
+      <c r="F12" s="12"/>
+    </row>
+    <row r="13" spans="1:6" ht="28.5" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A13" s="38" t="s">
+        <v>274</v>
+      </c>
+      <c r="B13" s="9" t="s">
+        <v>96</v>
+      </c>
+      <c r="C13" s="55"/>
+      <c r="D13" s="55"/>
+      <c r="E13" s="11" t="s">
+        <v>41</v>
+      </c>
+      <c r="F13" s="8" t="s">
+        <v>55</v>
+      </c>
+    </row>
+    <row r="14" spans="1:6" ht="28.5" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A14" s="38" t="s">
+        <v>275</v>
+      </c>
+      <c r="B14" s="7" t="s">
+        <v>18</v>
+      </c>
+      <c r="C14" s="7" t="s">
+        <v>18</v>
+      </c>
+      <c r="D14" s="7" t="s">
+        <v>18</v>
+      </c>
+      <c r="E14" s="7" t="s">
+        <v>18</v>
+      </c>
+      <c r="F14" s="7" t="s">
+        <v>18</v>
+      </c>
+    </row>
+    <row r="15" spans="1:6" ht="28.5" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A15" s="38" t="s">
+        <v>276</v>
+      </c>
+      <c r="B15" s="8" t="s">
+        <v>55</v>
+      </c>
+      <c r="C15" s="10" t="s">
+        <v>99</v>
+      </c>
+      <c r="D15" s="11" t="s">
+        <v>41</v>
+      </c>
+      <c r="E15" s="8" t="s">
+        <v>90</v>
+      </c>
+      <c r="F15" s="12"/>
+    </row>
+    <row r="16" spans="1:6" ht="28.5" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A16" s="38" t="s">
+        <v>277</v>
+      </c>
+      <c r="B16" s="8" t="s">
+        <v>100</v>
+      </c>
+      <c r="C16" s="9" t="s">
+        <v>96</v>
+      </c>
+      <c r="D16" s="12"/>
+      <c r="E16" s="12"/>
+      <c r="F16" s="9" t="s">
+        <v>39</v>
+      </c>
+    </row>
+    <row r="17" spans="1:6" ht="28.35" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A17" s="38" t="s">
+        <v>278</v>
+      </c>
+      <c r="B17" s="8" t="s">
+        <v>90</v>
+      </c>
+      <c r="C17" s="12"/>
+      <c r="D17" s="12"/>
+      <c r="E17" s="12"/>
+      <c r="F17" s="12"/>
+    </row>
+    <row r="18" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="A18">
+        <v>2</v>
+      </c>
+      <c r="B18" t="s">
+        <v>279</v>
+      </c>
+      <c r="C18" t="s">
+        <v>280</v>
+      </c>
+      <c r="D18" t="s">
+        <v>281</v>
+      </c>
+      <c r="E18" t="s">
+        <v>282</v>
+      </c>
+      <c r="F18" t="s">
+        <v>283</v>
+      </c>
+    </row>
+    <row r="19" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="B19" s="38" t="s">
+        <v>264</v>
+      </c>
+      <c r="C19" s="38" t="s">
+        <v>264</v>
+      </c>
+      <c r="D19" s="38" t="s">
+        <v>264</v>
+      </c>
+      <c r="E19" s="38" t="s">
+        <v>264</v>
+      </c>
+      <c r="F19" s="38" t="s">
+        <v>264</v>
+      </c>
+    </row>
+    <row r="20" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="B20" s="38" t="s">
+        <v>265</v>
+      </c>
+      <c r="C20" s="38" t="s">
+        <v>265</v>
+      </c>
+      <c r="D20" s="38" t="s">
+        <v>265</v>
+      </c>
+      <c r="E20" s="38" t="s">
+        <v>265</v>
+      </c>
+      <c r="F20" s="38" t="s">
+        <v>265</v>
+      </c>
+    </row>
+    <row r="21" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="B21" s="38" t="s">
+        <v>266</v>
+      </c>
+      <c r="C21" s="38" t="s">
+        <v>266</v>
+      </c>
+      <c r="D21" s="38" t="s">
+        <v>266</v>
+      </c>
+      <c r="E21" s="38" t="s">
+        <v>266</v>
+      </c>
+      <c r="F21" s="38" t="s">
+        <v>266</v>
+      </c>
+    </row>
+    <row r="22" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="B22" s="38" t="s">
+        <v>268</v>
+      </c>
+      <c r="C22" s="38" t="s">
+        <v>268</v>
+      </c>
+      <c r="D22" s="38" t="s">
+        <v>268</v>
+      </c>
+      <c r="E22" s="38" t="s">
+        <v>268</v>
+      </c>
+      <c r="F22" s="38" t="s">
+        <v>268</v>
+      </c>
+    </row>
+    <row r="23" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="B23" s="38" t="s">
+        <v>269</v>
+      </c>
+      <c r="C23" s="38" t="s">
+        <v>269</v>
+      </c>
+      <c r="D23" s="38" t="s">
+        <v>269</v>
+      </c>
+      <c r="E23" s="38" t="s">
+        <v>269</v>
+      </c>
+      <c r="F23" s="38" t="s">
+        <v>269</v>
+      </c>
+    </row>
+    <row r="24" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="B24" s="38" t="s">
+        <v>272</v>
+      </c>
+      <c r="C24" s="38" t="s">
+        <v>270</v>
+      </c>
+      <c r="D24" s="38" t="s">
+        <v>270</v>
+      </c>
+      <c r="E24" s="38" t="s">
+        <v>270</v>
+      </c>
+      <c r="F24" s="38" t="s">
+        <v>270</v>
+      </c>
+    </row>
+    <row r="25" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="B25" s="38" t="s">
+        <v>274</v>
+      </c>
+      <c r="C25" s="38" t="s">
+        <v>272</v>
+      </c>
+      <c r="D25" s="38" t="s">
+        <v>272</v>
+      </c>
+      <c r="E25" s="38" t="s">
+        <v>272</v>
+      </c>
+      <c r="F25" s="38" t="s">
+        <v>272</v>
+      </c>
+    </row>
+    <row r="26" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="B26" s="38" t="s">
+        <v>276</v>
+      </c>
+      <c r="C26" s="38" t="s">
+        <v>273</v>
+      </c>
+      <c r="D26" s="38" t="s">
+        <v>273</v>
+      </c>
+      <c r="E26" s="38" t="s">
+        <v>274</v>
+      </c>
+      <c r="F26" s="38" t="s">
+        <v>274</v>
+      </c>
+    </row>
+    <row r="27" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="B27" s="38" t="s">
+        <v>277</v>
+      </c>
+      <c r="C27" s="38" t="s">
+        <v>274</v>
+      </c>
+      <c r="D27" s="38" t="s">
+        <v>274</v>
+      </c>
+      <c r="E27" s="38" t="s">
+        <v>276</v>
+      </c>
+      <c r="F27" s="38" t="s">
+        <v>277</v>
+      </c>
+    </row>
+    <row r="28" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="B28" s="38" t="s">
+        <v>278</v>
+      </c>
+      <c r="C28" s="38" t="s">
+        <v>276</v>
+      </c>
+      <c r="D28" s="38" t="s">
+        <v>276</v>
+      </c>
+    </row>
+    <row r="29" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="C29" s="38" t="s">
+        <v>277</v>
+      </c>
+    </row>
+  </sheetData>
+  <mergeCells count="5">
+    <mergeCell ref="D3:D4"/>
+    <mergeCell ref="C4:C5"/>
+    <mergeCell ref="E4:E5"/>
+    <mergeCell ref="C12:C13"/>
+    <mergeCell ref="D12:D13"/>
+  </mergeCells>
+  <pageMargins left="0.25" right="0.25" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageSetup orientation="landscape" horizontalDpi="0" verticalDpi="0" r:id="rId1"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet14.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0C00-000000000000}">
-  <dimension ref="A1:F16"/>
+  <dimension ref="A1:F27"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="D21" sqref="D21"/>
+    <sheetView topLeftCell="A7" workbookViewId="0">
+      <selection activeCell="A17" sqref="A17:F27"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="9.33203125" defaultRowHeight="12.75" x14ac:dyDescent="0.2"/>
@@ -5739,7 +6356,7 @@
     </row>
     <row r="2" spans="1:6" ht="30.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A2" s="38" t="s">
-        <v>263</v>
+        <v>264</v>
       </c>
       <c r="B2" s="5" t="s">
         <v>102</v>
@@ -5755,7 +6372,7 @@
     </row>
     <row r="3" spans="1:6" ht="28.5" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A3" s="38" t="s">
-        <v>264</v>
+        <v>265</v>
       </c>
       <c r="B3" s="5" t="s">
         <v>127</v>
@@ -5775,7 +6392,7 @@
     </row>
     <row r="4" spans="1:6" ht="28.5" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A4" s="38" t="s">
-        <v>265</v>
+        <v>266</v>
       </c>
       <c r="B4" s="5" t="s">
         <v>106</v>
@@ -5791,7 +6408,7 @@
     </row>
     <row r="5" spans="1:6" ht="28.5" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A5" s="38" t="s">
-        <v>266</v>
+        <v>267</v>
       </c>
       <c r="B5" s="7" t="s">
         <v>18</v>
@@ -5811,7 +6428,7 @@
     </row>
     <row r="6" spans="1:6" ht="28.5" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A6" s="38" t="s">
-        <v>267</v>
+        <v>268</v>
       </c>
       <c r="B6" s="44" t="s">
         <v>152</v>
@@ -5829,7 +6446,7 @@
     </row>
     <row r="7" spans="1:6" ht="28.5" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A7" s="38" t="s">
-        <v>268</v>
+        <v>269</v>
       </c>
       <c r="B7" s="45"/>
       <c r="C7" s="12"/>
@@ -5843,7 +6460,7 @@
     </row>
     <row r="8" spans="1:6" ht="28.5" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A8" s="38" t="s">
-        <v>269</v>
+        <v>270</v>
       </c>
       <c r="B8" s="16" t="s">
         <v>162</v>
@@ -5863,7 +6480,7 @@
     </row>
     <row r="9" spans="1:6" ht="28.5" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A9" s="38" t="s">
-        <v>270</v>
+        <v>271</v>
       </c>
       <c r="B9" s="7" t="s">
         <v>18</v>
@@ -5883,7 +6500,7 @@
     </row>
     <row r="10" spans="1:6" ht="28.5" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A10" s="38" t="s">
-        <v>271</v>
+        <v>272</v>
       </c>
       <c r="B10" s="5" t="s">
         <v>117</v>
@@ -5903,7 +6520,7 @@
     </row>
     <row r="11" spans="1:6" ht="28.5" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A11" s="38" t="s">
-        <v>272</v>
+        <v>273</v>
       </c>
       <c r="B11" s="5" t="s">
         <v>139</v>
@@ -5921,7 +6538,7 @@
     </row>
     <row r="12" spans="1:6" ht="28.5" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A12" s="38" t="s">
-        <v>273</v>
+        <v>274</v>
       </c>
       <c r="B12" s="12"/>
       <c r="C12" s="5" t="s">
@@ -5933,7 +6550,7 @@
     </row>
     <row r="13" spans="1:6" ht="28.5" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A13" s="38" t="s">
-        <v>274</v>
+        <v>275</v>
       </c>
       <c r="B13" s="7" t="s">
         <v>18</v>
@@ -5953,7 +6570,7 @@
     </row>
     <row r="14" spans="1:6" ht="28.5" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A14" s="38" t="s">
-        <v>275</v>
+        <v>276</v>
       </c>
       <c r="B14" s="5" t="s">
         <v>125</v>
@@ -5965,7 +6582,7 @@
     </row>
     <row r="15" spans="1:6" ht="28.5" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A15" s="38" t="s">
-        <v>276</v>
+        <v>277</v>
       </c>
       <c r="B15" s="5" t="s">
         <v>125</v>
@@ -5979,7 +6596,7 @@
     </row>
     <row r="16" spans="1:6" ht="28.35" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A16" s="38" t="s">
-        <v>277</v>
+        <v>278</v>
       </c>
       <c r="B16" s="5" t="s">
         <v>145</v>
@@ -5990,6 +6607,169 @@
         <v>38</v>
       </c>
       <c r="F16" s="12"/>
+    </row>
+    <row r="17" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="A17">
+        <v>3</v>
+      </c>
+      <c r="B17" t="s">
+        <v>279</v>
+      </c>
+      <c r="C17" t="s">
+        <v>280</v>
+      </c>
+      <c r="D17" t="s">
+        <v>281</v>
+      </c>
+      <c r="E17" t="s">
+        <v>282</v>
+      </c>
+      <c r="F17" t="s">
+        <v>283</v>
+      </c>
+    </row>
+    <row r="18" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="B18" s="38" t="s">
+        <v>264</v>
+      </c>
+      <c r="C18" s="38" t="s">
+        <v>264</v>
+      </c>
+      <c r="D18" s="38" t="s">
+        <v>265</v>
+      </c>
+      <c r="E18" s="38" t="s">
+        <v>264</v>
+      </c>
+      <c r="F18" s="38" t="s">
+        <v>265</v>
+      </c>
+    </row>
+    <row r="19" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="B19" s="38" t="s">
+        <v>265</v>
+      </c>
+      <c r="C19" s="38" t="s">
+        <v>265</v>
+      </c>
+      <c r="D19" s="38" t="s">
+        <v>266</v>
+      </c>
+      <c r="E19" s="38" t="s">
+        <v>265</v>
+      </c>
+      <c r="F19" s="38" t="s">
+        <v>266</v>
+      </c>
+    </row>
+    <row r="20" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="B20" s="38" t="s">
+        <v>266</v>
+      </c>
+      <c r="C20" s="38" t="s">
+        <v>270</v>
+      </c>
+      <c r="D20" s="38" t="s">
+        <v>268</v>
+      </c>
+      <c r="E20" s="38" t="s">
+        <v>266</v>
+      </c>
+      <c r="F20" s="38" t="s">
+        <v>268</v>
+      </c>
+    </row>
+    <row r="21" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="B21" s="38" t="s">
+        <v>268</v>
+      </c>
+      <c r="C21" s="38" t="s">
+        <v>272</v>
+      </c>
+      <c r="D21" s="38" t="s">
+        <v>269</v>
+      </c>
+      <c r="E21" s="38" t="s">
+        <v>268</v>
+      </c>
+      <c r="F21" s="38" t="s">
+        <v>269</v>
+      </c>
+    </row>
+    <row r="22" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="B22" s="38" t="s">
+        <v>269</v>
+      </c>
+      <c r="C22" s="38" t="s">
+        <v>273</v>
+      </c>
+      <c r="D22" s="38" t="s">
+        <v>270</v>
+      </c>
+      <c r="E22" s="38" t="s">
+        <v>269</v>
+      </c>
+      <c r="F22" s="38" t="s">
+        <v>270</v>
+      </c>
+    </row>
+    <row r="23" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="B23" s="38" t="s">
+        <v>272</v>
+      </c>
+      <c r="C23" s="38" t="s">
+        <v>274</v>
+      </c>
+      <c r="D23" s="38" t="s">
+        <v>272</v>
+      </c>
+      <c r="E23" s="38" t="s">
+        <v>270</v>
+      </c>
+      <c r="F23" s="38" t="s">
+        <v>272</v>
+      </c>
+    </row>
+    <row r="24" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="B24" s="38" t="s">
+        <v>273</v>
+      </c>
+      <c r="D24" s="38" t="s">
+        <v>273</v>
+      </c>
+      <c r="E24" s="38" t="s">
+        <v>272</v>
+      </c>
+      <c r="F24" s="38" t="s">
+        <v>273</v>
+      </c>
+    </row>
+    <row r="25" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="B25" s="38" t="s">
+        <v>276</v>
+      </c>
+      <c r="E25" s="38" t="s">
+        <v>273</v>
+      </c>
+      <c r="F25" s="38" t="s">
+        <v>274</v>
+      </c>
+    </row>
+    <row r="26" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="B26" s="38" t="s">
+        <v>277</v>
+      </c>
+      <c r="E26" s="38" t="s">
+        <v>277</v>
+      </c>
+    </row>
+    <row r="27" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="B27" s="38" t="s">
+        <v>278</v>
+      </c>
+      <c r="E27" s="38" t="s">
+        <v>278</v>
+      </c>
     </row>
   </sheetData>
   <mergeCells count="5">
@@ -6004,12 +6784,525 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet14.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet15.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-1100-000000000000}">
+  <dimension ref="A1:F28"/>
+  <sheetViews>
+    <sheetView topLeftCell="A7" workbookViewId="0">
+      <selection activeCell="A17" sqref="A17:F29"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr baseColWidth="10" defaultColWidth="9.33203125" defaultRowHeight="12.75" x14ac:dyDescent="0.2"/>
+  <cols>
+    <col min="1" max="1" width="12.5" customWidth="1"/>
+    <col min="2" max="2" width="24.6640625" customWidth="1"/>
+    <col min="3" max="3" width="27.1640625" customWidth="1"/>
+    <col min="4" max="4" width="25.83203125" customWidth="1"/>
+    <col min="5" max="5" width="26.33203125" customWidth="1"/>
+    <col min="6" max="6" width="28.5" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:6" ht="18.75" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A1" s="28" t="s">
+        <v>219</v>
+      </c>
+      <c r="B1" s="19" t="s">
+        <v>164</v>
+      </c>
+      <c r="C1" s="19" t="s">
+        <v>165</v>
+      </c>
+      <c r="D1" s="19" t="s">
+        <v>168</v>
+      </c>
+      <c r="E1" s="19" t="s">
+        <v>166</v>
+      </c>
+      <c r="F1" s="19" t="s">
+        <v>167</v>
+      </c>
+    </row>
+    <row r="2" spans="1:6" ht="34.5" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A2" s="38" t="s">
+        <v>264</v>
+      </c>
+      <c r="B2" s="5" t="s">
+        <v>126</v>
+      </c>
+      <c r="C2" s="8" t="s">
+        <v>60</v>
+      </c>
+      <c r="D2" s="5" t="s">
+        <v>151</v>
+      </c>
+      <c r="E2" s="5" t="s">
+        <v>151</v>
+      </c>
+      <c r="F2" s="5" t="s">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="3" spans="1:6" ht="30.75" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A3" s="38" t="s">
+        <v>265</v>
+      </c>
+      <c r="B3" s="5" t="s">
+        <v>151</v>
+      </c>
+      <c r="C3" s="5" t="s">
+        <v>13</v>
+      </c>
+      <c r="D3" s="8" t="s">
+        <v>60</v>
+      </c>
+      <c r="E3" s="8" t="s">
+        <v>80</v>
+      </c>
+      <c r="F3" s="5" t="s">
+        <v>13</v>
+      </c>
+    </row>
+    <row r="4" spans="1:6" ht="30.75" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A4" s="38" t="s">
+        <v>266</v>
+      </c>
+      <c r="B4" s="8" t="s">
+        <v>66</v>
+      </c>
+      <c r="C4" s="5" t="s">
+        <v>126</v>
+      </c>
+      <c r="D4" s="5" t="s">
+        <v>10</v>
+      </c>
+      <c r="E4" s="8" t="s">
+        <v>66</v>
+      </c>
+      <c r="F4" s="5" t="s">
+        <v>126</v>
+      </c>
+    </row>
+    <row r="5" spans="1:6" ht="28.5" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A5" s="38" t="s">
+        <v>267</v>
+      </c>
+      <c r="B5" s="7" t="s">
+        <v>18</v>
+      </c>
+      <c r="C5" s="7" t="s">
+        <v>18</v>
+      </c>
+      <c r="D5" s="7" t="s">
+        <v>18</v>
+      </c>
+      <c r="E5" s="7" t="s">
+        <v>18</v>
+      </c>
+      <c r="F5" s="7" t="s">
+        <v>18</v>
+      </c>
+    </row>
+    <row r="6" spans="1:6" ht="28.5" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A6" s="38" t="s">
+        <v>268</v>
+      </c>
+      <c r="B6" s="5" t="s">
+        <v>13</v>
+      </c>
+      <c r="C6" s="8" t="s">
+        <v>84</v>
+      </c>
+      <c r="D6" s="5" t="s">
+        <v>13</v>
+      </c>
+      <c r="E6" s="8" t="s">
+        <v>60</v>
+      </c>
+      <c r="F6" s="12"/>
+    </row>
+    <row r="7" spans="1:6" ht="28.5" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A7" s="38" t="s">
+        <v>269</v>
+      </c>
+      <c r="B7" s="5" t="s">
+        <v>10</v>
+      </c>
+      <c r="C7" s="5" t="s">
+        <v>151</v>
+      </c>
+      <c r="D7" s="8" t="s">
+        <v>66</v>
+      </c>
+      <c r="E7" s="8" t="s">
+        <v>84</v>
+      </c>
+      <c r="F7" s="5" t="s">
+        <v>151</v>
+      </c>
+    </row>
+    <row r="8" spans="1:6" ht="28.5" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A8" s="38" t="s">
+        <v>270</v>
+      </c>
+      <c r="B8" s="16" t="s">
+        <v>162</v>
+      </c>
+      <c r="C8" s="8" t="s">
+        <v>35</v>
+      </c>
+      <c r="D8" s="5" t="s">
+        <v>126</v>
+      </c>
+      <c r="E8" s="8" t="s">
+        <v>37</v>
+      </c>
+      <c r="F8" s="8" t="s">
+        <v>84</v>
+      </c>
+    </row>
+    <row r="9" spans="1:6" ht="28.5" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A9" s="38" t="s">
+        <v>271</v>
+      </c>
+      <c r="B9" s="7" t="s">
+        <v>18</v>
+      </c>
+      <c r="C9" s="7" t="s">
+        <v>18</v>
+      </c>
+      <c r="D9" s="7" t="s">
+        <v>18</v>
+      </c>
+      <c r="E9" s="7" t="s">
+        <v>18</v>
+      </c>
+      <c r="F9" s="7" t="s">
+        <v>18</v>
+      </c>
+    </row>
+    <row r="10" spans="1:6" ht="28.5" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A10" s="38" t="s">
+        <v>272</v>
+      </c>
+      <c r="B10" s="8" t="s">
+        <v>50</v>
+      </c>
+      <c r="C10" s="8" t="s">
+        <v>92</v>
+      </c>
+      <c r="D10" s="8" t="s">
+        <v>80</v>
+      </c>
+      <c r="E10" s="5" t="s">
+        <v>126</v>
+      </c>
+      <c r="F10" s="8" t="s">
+        <v>80</v>
+      </c>
+    </row>
+    <row r="11" spans="1:6" ht="28.5" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A11" s="38" t="s">
+        <v>273</v>
+      </c>
+      <c r="B11" s="8" t="s">
+        <v>35</v>
+      </c>
+      <c r="C11" s="12"/>
+      <c r="D11" s="12"/>
+      <c r="E11" s="12"/>
+      <c r="F11" s="8" t="s">
+        <v>97</v>
+      </c>
+    </row>
+    <row r="12" spans="1:6" ht="28.5" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A12" s="38" t="s">
+        <v>274</v>
+      </c>
+      <c r="B12" s="12"/>
+      <c r="C12" s="8" t="s">
+        <v>97</v>
+      </c>
+      <c r="D12" s="8" t="s">
+        <v>35</v>
+      </c>
+      <c r="E12" s="12"/>
+      <c r="F12" s="12"/>
+    </row>
+    <row r="13" spans="1:6" ht="28.5" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A13" s="38" t="s">
+        <v>275</v>
+      </c>
+      <c r="B13" s="7" t="s">
+        <v>18</v>
+      </c>
+      <c r="C13" s="7" t="s">
+        <v>18</v>
+      </c>
+      <c r="D13" s="7" t="s">
+        <v>18</v>
+      </c>
+      <c r="E13" s="7" t="s">
+        <v>18</v>
+      </c>
+      <c r="F13" s="7" t="s">
+        <v>18</v>
+      </c>
+    </row>
+    <row r="14" spans="1:6" ht="28.5" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A14" s="38" t="s">
+        <v>276</v>
+      </c>
+      <c r="B14" s="8" t="s">
+        <v>92</v>
+      </c>
+      <c r="C14" s="8" t="s">
+        <v>37</v>
+      </c>
+      <c r="D14" s="8" t="s">
+        <v>50</v>
+      </c>
+      <c r="E14" s="8" t="s">
+        <v>35</v>
+      </c>
+      <c r="F14" s="8" t="s">
+        <v>50</v>
+      </c>
+    </row>
+    <row r="15" spans="1:6" ht="28.5" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A15" s="38" t="s">
+        <v>277</v>
+      </c>
+      <c r="B15" s="12"/>
+      <c r="C15" s="8" t="s">
+        <v>50</v>
+      </c>
+      <c r="D15" s="8" t="s">
+        <v>37</v>
+      </c>
+      <c r="E15" s="8" t="s">
+        <v>97</v>
+      </c>
+      <c r="F15" s="12"/>
+    </row>
+    <row r="16" spans="1:6" ht="28.35" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A16" s="38" t="s">
+        <v>278</v>
+      </c>
+      <c r="B16" s="8" t="s">
+        <v>58</v>
+      </c>
+      <c r="C16" s="8" t="s">
+        <v>58</v>
+      </c>
+      <c r="D16" s="8" t="s">
+        <v>58</v>
+      </c>
+      <c r="E16" s="8" t="s">
+        <v>92</v>
+      </c>
+      <c r="F16" s="12"/>
+    </row>
+    <row r="17" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="A17">
+        <v>4</v>
+      </c>
+      <c r="B17" t="s">
+        <v>263</v>
+      </c>
+      <c r="C17" t="s">
+        <v>165</v>
+      </c>
+      <c r="D17" t="s">
+        <v>168</v>
+      </c>
+      <c r="E17" t="s">
+        <v>166</v>
+      </c>
+      <c r="F17" t="s">
+        <v>167</v>
+      </c>
+    </row>
+    <row r="18" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="B18" s="38" t="s">
+        <v>264</v>
+      </c>
+      <c r="C18" s="38" t="s">
+        <v>264</v>
+      </c>
+      <c r="D18" s="38" t="s">
+        <v>264</v>
+      </c>
+      <c r="E18" s="38" t="s">
+        <v>264</v>
+      </c>
+      <c r="F18" s="38" t="s">
+        <v>264</v>
+      </c>
+    </row>
+    <row r="19" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="B19" s="38" t="s">
+        <v>265</v>
+      </c>
+      <c r="C19" s="38" t="s">
+        <v>265</v>
+      </c>
+      <c r="D19" s="38" t="s">
+        <v>265</v>
+      </c>
+      <c r="E19" s="38" t="s">
+        <v>265</v>
+      </c>
+      <c r="F19" s="38" t="s">
+        <v>265</v>
+      </c>
+    </row>
+    <row r="20" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="B20" s="38" t="s">
+        <v>266</v>
+      </c>
+      <c r="C20" s="38" t="s">
+        <v>266</v>
+      </c>
+      <c r="D20" s="38" t="s">
+        <v>266</v>
+      </c>
+      <c r="E20" s="38" t="s">
+        <v>266</v>
+      </c>
+      <c r="F20" s="38" t="s">
+        <v>266</v>
+      </c>
+    </row>
+    <row r="21" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="B21" s="38" t="s">
+        <v>268</v>
+      </c>
+      <c r="C21" s="38" t="s">
+        <v>268</v>
+      </c>
+      <c r="D21" s="38" t="s">
+        <v>268</v>
+      </c>
+      <c r="E21" s="38" t="s">
+        <v>268</v>
+      </c>
+      <c r="F21" s="38" t="s">
+        <v>269</v>
+      </c>
+    </row>
+    <row r="22" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="B22" s="38" t="s">
+        <v>269</v>
+      </c>
+      <c r="C22" s="38" t="s">
+        <v>269</v>
+      </c>
+      <c r="D22" s="38" t="s">
+        <v>269</v>
+      </c>
+      <c r="E22" s="38" t="s">
+        <v>269</v>
+      </c>
+      <c r="F22" s="38" t="s">
+        <v>270</v>
+      </c>
+    </row>
+    <row r="23" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="B23" s="38" t="s">
+        <v>272</v>
+      </c>
+      <c r="C23" s="38" t="s">
+        <v>270</v>
+      </c>
+      <c r="D23" s="38" t="s">
+        <v>270</v>
+      </c>
+      <c r="E23" s="38" t="s">
+        <v>270</v>
+      </c>
+      <c r="F23" s="38" t="s">
+        <v>272</v>
+      </c>
+    </row>
+    <row r="24" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="B24" s="38" t="s">
+        <v>273</v>
+      </c>
+      <c r="C24" s="38" t="s">
+        <v>272</v>
+      </c>
+      <c r="D24" s="38" t="s">
+        <v>272</v>
+      </c>
+      <c r="E24" s="38" t="s">
+        <v>272</v>
+      </c>
+      <c r="F24" s="38" t="s">
+        <v>273</v>
+      </c>
+    </row>
+    <row r="25" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="B25" s="38" t="s">
+        <v>276</v>
+      </c>
+      <c r="C25" s="38" t="s">
+        <v>274</v>
+      </c>
+      <c r="D25" s="38" t="s">
+        <v>274</v>
+      </c>
+      <c r="E25" s="38" t="s">
+        <v>276</v>
+      </c>
+      <c r="F25" s="38" t="s">
+        <v>276</v>
+      </c>
+    </row>
+    <row r="26" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="B26" s="38" t="s">
+        <v>278</v>
+      </c>
+      <c r="C26" s="38" t="s">
+        <v>276</v>
+      </c>
+      <c r="D26" s="38" t="s">
+        <v>276</v>
+      </c>
+      <c r="E26" s="38" t="s">
+        <v>277</v>
+      </c>
+    </row>
+    <row r="27" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="C27" s="38" t="s">
+        <v>277</v>
+      </c>
+      <c r="D27" s="38" t="s">
+        <v>277</v>
+      </c>
+      <c r="E27" s="38" t="s">
+        <v>278</v>
+      </c>
+    </row>
+    <row r="28" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="C28" s="38" t="s">
+        <v>278</v>
+      </c>
+      <c r="D28" s="38" t="s">
+        <v>278</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.25" right="0.25" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageSetup orientation="landscape" horizontalDpi="0" verticalDpi="0" r:id="rId1"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet16.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0D00-000000000000}">
-  <dimension ref="A1:F16"/>
+  <dimension ref="A1:F21"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="A2" sqref="A2:A16"/>
+      <selection activeCell="A17" sqref="A17:F21"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="9.33203125" defaultRowHeight="12.75" x14ac:dyDescent="0.2"/>
@@ -6044,7 +7337,7 @@
     </row>
     <row r="2" spans="1:6" ht="28.5" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A2" s="38" t="s">
-        <v>263</v>
+        <v>264</v>
       </c>
       <c r="B2" s="30" t="s">
         <v>198</v>
@@ -6064,7 +7357,7 @@
     </row>
     <row r="3" spans="1:6" ht="28.5" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A3" s="38" t="s">
-        <v>264</v>
+        <v>265</v>
       </c>
       <c r="B3" s="12"/>
       <c r="C3" s="12"/>
@@ -6080,7 +7373,7 @@
     </row>
     <row r="4" spans="1:6" ht="28.5" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A4" s="38" t="s">
-        <v>265</v>
+        <v>266</v>
       </c>
       <c r="B4" s="30" t="s">
         <v>247</v>
@@ -6096,7 +7389,7 @@
     </row>
     <row r="5" spans="1:6" ht="28.5" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A5" s="38" t="s">
-        <v>266</v>
+        <v>267</v>
       </c>
       <c r="B5" s="61" t="s">
         <v>249</v>
@@ -6108,7 +7401,7 @@
     </row>
     <row r="6" spans="1:6" ht="28.5" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A6" s="38" t="s">
-        <v>267</v>
+        <v>268</v>
       </c>
       <c r="B6" s="30"/>
       <c r="C6" s="12"/>
@@ -6118,7 +7411,7 @@
     </row>
     <row r="7" spans="1:6" ht="28.5" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A7" s="38" t="s">
-        <v>268</v>
+        <v>269</v>
       </c>
       <c r="B7" s="30" t="s">
         <v>248</v>
@@ -6132,7 +7425,7 @@
     </row>
     <row r="8" spans="1:6" ht="33" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A8" s="38" t="s">
-        <v>269</v>
+        <v>270</v>
       </c>
       <c r="B8" s="16" t="s">
         <v>246</v>
@@ -6152,7 +7445,7 @@
     </row>
     <row r="9" spans="1:6" ht="31.5" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A9" s="38" t="s">
-        <v>270</v>
+        <v>271</v>
       </c>
       <c r="B9" s="30" t="s">
         <v>233</v>
@@ -6166,7 +7459,7 @@
     </row>
     <row r="10" spans="1:6" ht="33.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A10" s="38" t="s">
-        <v>271</v>
+        <v>272</v>
       </c>
       <c r="B10" s="10" t="s">
         <v>91</v>
@@ -6186,7 +7479,7 @@
     </row>
     <row r="11" spans="1:6" ht="28.5" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A11" s="38" t="s">
-        <v>272</v>
+        <v>273</v>
       </c>
       <c r="B11" s="12"/>
       <c r="C11" s="12"/>
@@ -6200,7 +7493,7 @@
     </row>
     <row r="12" spans="1:6" ht="28.5" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A12" s="38" t="s">
-        <v>273</v>
+        <v>274</v>
       </c>
       <c r="B12" s="30" t="s">
         <v>234</v>
@@ -6218,7 +7511,7 @@
     </row>
     <row r="13" spans="1:6" ht="28.5" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A13" s="38" t="s">
-        <v>274</v>
+        <v>275</v>
       </c>
       <c r="B13" s="61" t="s">
         <v>249</v>
@@ -6230,7 +7523,7 @@
     </row>
     <row r="14" spans="1:6" ht="28.5" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A14" s="38" t="s">
-        <v>275</v>
+        <v>276</v>
       </c>
       <c r="B14" s="30" t="s">
         <v>235</v>
@@ -6250,7 +7543,7 @@
     </row>
     <row r="15" spans="1:6" ht="34.5" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A15" s="38" t="s">
-        <v>276</v>
+        <v>277</v>
       </c>
       <c r="B15" s="12"/>
       <c r="C15" s="30" t="s">
@@ -6266,7 +7559,7 @@
     </row>
     <row r="16" spans="1:6" ht="28.35" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A16" s="38" t="s">
-        <v>277</v>
+        <v>278</v>
       </c>
       <c r="B16" s="30" t="s">
         <v>197</v>
@@ -6282,6 +7575,88 @@
       </c>
       <c r="F16" s="30" t="s">
         <v>197</v>
+      </c>
+    </row>
+    <row r="17" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="A17">
+        <v>5</v>
+      </c>
+      <c r="B17" t="s">
+        <v>263</v>
+      </c>
+      <c r="C17" t="s">
+        <v>165</v>
+      </c>
+      <c r="D17" t="s">
+        <v>168</v>
+      </c>
+      <c r="E17" t="s">
+        <v>166</v>
+      </c>
+      <c r="F17" t="s">
+        <v>167</v>
+      </c>
+    </row>
+    <row r="18" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="B18" s="38" t="s">
+        <v>265</v>
+      </c>
+      <c r="C18" s="38" t="s">
+        <v>265</v>
+      </c>
+      <c r="D18" s="38" t="s">
+        <v>266</v>
+      </c>
+      <c r="E18" s="38" t="s">
+        <v>268</v>
+      </c>
+      <c r="F18" s="38" t="s">
+        <v>266</v>
+      </c>
+    </row>
+    <row r="19" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="B19" s="38" t="s">
+        <v>268</v>
+      </c>
+      <c r="C19" s="38" t="s">
+        <v>268</v>
+      </c>
+      <c r="D19" s="38" t="s">
+        <v>268</v>
+      </c>
+      <c r="E19" s="38" t="s">
+        <v>269</v>
+      </c>
+      <c r="F19" s="38" t="s">
+        <v>268</v>
+      </c>
+    </row>
+    <row r="20" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="B20" s="38" t="s">
+        <v>273</v>
+      </c>
+      <c r="C20" s="38" t="s">
+        <v>269</v>
+      </c>
+      <c r="D20" s="38" t="s">
+        <v>269</v>
+      </c>
+      <c r="E20" s="38" t="s">
+        <v>273</v>
+      </c>
+    </row>
+    <row r="21" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="B21" s="38" t="s">
+        <v>277</v>
+      </c>
+      <c r="C21" s="38" t="s">
+        <v>273</v>
+      </c>
+      <c r="D21" s="38" t="s">
+        <v>274</v>
+      </c>
+      <c r="E21" s="38" t="s">
+        <v>277</v>
       </c>
     </row>
   </sheetData>
@@ -6295,969 +7670,12 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet15.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0E00-000000000000}">
-  <dimension ref="A2:F17"/>
+<file path=xl/worksheets/sheet17.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-1000-000000000000}">
+  <dimension ref="A1:F27"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="A3" sqref="A3:A17"/>
-    </sheetView>
-  </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultColWidth="9.33203125" defaultRowHeight="12.75" x14ac:dyDescent="0.2"/>
-  <cols>
-    <col min="1" max="1" width="15" customWidth="1"/>
-    <col min="2" max="2" width="25.6640625" customWidth="1"/>
-    <col min="3" max="3" width="24.5" customWidth="1"/>
-    <col min="4" max="4" width="24.6640625" customWidth="1"/>
-    <col min="5" max="5" width="24.83203125" customWidth="1"/>
-    <col min="6" max="6" width="26.6640625" customWidth="1"/>
-  </cols>
-  <sheetData>
-    <row r="2" spans="1:6" ht="18.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A2" s="27" t="s">
-        <v>222</v>
-      </c>
-      <c r="B2" s="19" t="s">
-        <v>164</v>
-      </c>
-      <c r="C2" s="19" t="s">
-        <v>165</v>
-      </c>
-      <c r="D2" s="19" t="s">
-        <v>168</v>
-      </c>
-      <c r="E2" s="19" t="s">
-        <v>166</v>
-      </c>
-      <c r="F2" s="19" t="s">
-        <v>167</v>
-      </c>
-    </row>
-    <row r="3" spans="1:6" ht="28.5" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A3" s="38" t="s">
-        <v>263</v>
-      </c>
-      <c r="B3" s="9" t="s">
-        <v>59</v>
-      </c>
-      <c r="C3" s="5" t="s">
-        <v>8</v>
-      </c>
-      <c r="D3" s="54" t="s">
-        <v>75</v>
-      </c>
-      <c r="E3" s="8" t="s">
-        <v>76</v>
-      </c>
-      <c r="F3" s="10" t="s">
-        <v>63</v>
-      </c>
-    </row>
-    <row r="4" spans="1:6" ht="28.5" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A4" s="38" t="s">
-        <v>264</v>
-      </c>
-      <c r="B4" s="5" t="s">
-        <v>12</v>
-      </c>
-      <c r="C4" s="54" t="s">
-        <v>59</v>
-      </c>
-      <c r="D4" s="55"/>
-      <c r="E4" s="44" t="s">
-        <v>8</v>
-      </c>
-      <c r="F4" s="8" t="s">
-        <v>65</v>
-      </c>
-    </row>
-    <row r="5" spans="1:6" ht="28.5" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A5" s="38" t="s">
-        <v>265</v>
-      </c>
-      <c r="B5" s="5" t="s">
-        <v>8</v>
-      </c>
-      <c r="C5" s="55"/>
-      <c r="D5" s="11" t="s">
-        <v>67</v>
-      </c>
-      <c r="E5" s="45"/>
-      <c r="F5" s="11" t="s">
-        <v>82</v>
-      </c>
-    </row>
-    <row r="6" spans="1:6" ht="28.5" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A6" s="38" t="s">
-        <v>266</v>
-      </c>
-      <c r="B6" s="7" t="s">
-        <v>18</v>
-      </c>
-      <c r="C6" s="7" t="s">
-        <v>18</v>
-      </c>
-      <c r="D6" s="7" t="s">
-        <v>18</v>
-      </c>
-      <c r="E6" s="7" t="s">
-        <v>18</v>
-      </c>
-      <c r="F6" s="7" t="s">
-        <v>18</v>
-      </c>
-    </row>
-    <row r="7" spans="1:6" ht="28.5" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A7" s="38" t="s">
-        <v>267</v>
-      </c>
-      <c r="B7" s="11" t="s">
-        <v>67</v>
-      </c>
-      <c r="C7" s="5" t="s">
-        <v>12</v>
-      </c>
-      <c r="D7" s="9" t="s">
-        <v>59</v>
-      </c>
-      <c r="E7" s="9" t="s">
-        <v>75</v>
-      </c>
-      <c r="F7" s="5" t="s">
-        <v>8</v>
-      </c>
-    </row>
-    <row r="8" spans="1:6" ht="28.5" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A8" s="38" t="s">
-        <v>268</v>
-      </c>
-      <c r="B8" s="9" t="s">
-        <v>75</v>
-      </c>
-      <c r="C8" s="10" t="s">
-        <v>85</v>
-      </c>
-      <c r="D8" s="11" t="s">
-        <v>82</v>
-      </c>
-      <c r="E8" s="5" t="s">
-        <v>12</v>
-      </c>
-      <c r="F8" s="11" t="s">
-        <v>67</v>
-      </c>
-    </row>
-    <row r="9" spans="1:6" ht="28.5" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A9" s="38" t="s">
-        <v>269</v>
-      </c>
-      <c r="B9" s="16" t="s">
-        <v>162</v>
-      </c>
-      <c r="C9" s="11" t="s">
-        <v>82</v>
-      </c>
-      <c r="D9" s="8" t="s">
-        <v>36</v>
-      </c>
-      <c r="E9" s="5" t="s">
-        <v>25</v>
-      </c>
-      <c r="F9" s="8" t="s">
-        <v>90</v>
-      </c>
-    </row>
-    <row r="10" spans="1:6" ht="28.5" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A10" s="38" t="s">
-        <v>270</v>
-      </c>
-      <c r="B10" s="7" t="s">
-        <v>18</v>
-      </c>
-      <c r="C10" s="7" t="s">
-        <v>18</v>
-      </c>
-      <c r="D10" s="7" t="s">
-        <v>18</v>
-      </c>
-      <c r="E10" s="7" t="s">
-        <v>18</v>
-      </c>
-      <c r="F10" s="7" t="s">
-        <v>18</v>
-      </c>
-    </row>
-    <row r="11" spans="1:6" ht="28.5" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A11" s="38" t="s">
-        <v>271</v>
-      </c>
-      <c r="B11" s="9" t="s">
-        <v>39</v>
-      </c>
-      <c r="C11" s="5" t="s">
-        <v>25</v>
-      </c>
-      <c r="D11" s="9" t="s">
-        <v>39</v>
-      </c>
-      <c r="E11" s="8" t="s">
-        <v>36</v>
-      </c>
-      <c r="F11" s="11" t="s">
-        <v>41</v>
-      </c>
-    </row>
-    <row r="12" spans="1:6" ht="28.5" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A12" s="38" t="s">
-        <v>272</v>
-      </c>
-      <c r="B12" s="12"/>
-      <c r="C12" s="54" t="s">
-        <v>39</v>
-      </c>
-      <c r="D12" s="54" t="s">
-        <v>96</v>
-      </c>
-      <c r="E12" s="12"/>
-      <c r="F12" s="12"/>
-    </row>
-    <row r="13" spans="1:6" ht="28.5" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A13" s="38" t="s">
-        <v>273</v>
-      </c>
-      <c r="B13" s="9" t="s">
-        <v>96</v>
-      </c>
-      <c r="C13" s="55"/>
-      <c r="D13" s="55"/>
-      <c r="E13" s="11" t="s">
-        <v>41</v>
-      </c>
-      <c r="F13" s="8" t="s">
-        <v>55</v>
-      </c>
-    </row>
-    <row r="14" spans="1:6" ht="28.5" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A14" s="38" t="s">
-        <v>274</v>
-      </c>
-      <c r="B14" s="7" t="s">
-        <v>18</v>
-      </c>
-      <c r="C14" s="7" t="s">
-        <v>18</v>
-      </c>
-      <c r="D14" s="7" t="s">
-        <v>18</v>
-      </c>
-      <c r="E14" s="7" t="s">
-        <v>18</v>
-      </c>
-      <c r="F14" s="7" t="s">
-        <v>18</v>
-      </c>
-    </row>
-    <row r="15" spans="1:6" ht="28.5" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A15" s="38" t="s">
-        <v>275</v>
-      </c>
-      <c r="B15" s="8" t="s">
-        <v>55</v>
-      </c>
-      <c r="C15" s="10" t="s">
-        <v>99</v>
-      </c>
-      <c r="D15" s="11" t="s">
-        <v>41</v>
-      </c>
-      <c r="E15" s="8" t="s">
-        <v>90</v>
-      </c>
-      <c r="F15" s="12"/>
-    </row>
-    <row r="16" spans="1:6" ht="28.5" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A16" s="38" t="s">
-        <v>276</v>
-      </c>
-      <c r="B16" s="8" t="s">
-        <v>100</v>
-      </c>
-      <c r="C16" s="9" t="s">
-        <v>96</v>
-      </c>
-      <c r="D16" s="12"/>
-      <c r="E16" s="12"/>
-      <c r="F16" s="9" t="s">
-        <v>39</v>
-      </c>
-    </row>
-    <row r="17" spans="1:6" ht="28.35" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A17" s="38" t="s">
-        <v>277</v>
-      </c>
-      <c r="B17" s="8" t="s">
-        <v>90</v>
-      </c>
-      <c r="C17" s="12"/>
-      <c r="D17" s="12"/>
-      <c r="E17" s="12"/>
-      <c r="F17" s="12"/>
-    </row>
-  </sheetData>
-  <mergeCells count="5">
-    <mergeCell ref="D3:D4"/>
-    <mergeCell ref="C4:C5"/>
-    <mergeCell ref="E4:E5"/>
-    <mergeCell ref="C12:C13"/>
-    <mergeCell ref="D12:D13"/>
-  </mergeCells>
-  <pageMargins left="0.25" right="0.25" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-  <pageSetup orientation="landscape" horizontalDpi="0" verticalDpi="0" r:id="rId1"/>
-</worksheet>
-</file>
-
-<file path=xl/worksheets/sheet16.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-1100-000000000000}">
-  <dimension ref="A1:F16"/>
-  <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="A2" sqref="A2:A16"/>
-    </sheetView>
-  </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultColWidth="9.33203125" defaultRowHeight="12.75" x14ac:dyDescent="0.2"/>
-  <cols>
-    <col min="1" max="1" width="12.5" customWidth="1"/>
-    <col min="2" max="2" width="24.6640625" customWidth="1"/>
-    <col min="3" max="3" width="27.1640625" customWidth="1"/>
-    <col min="4" max="4" width="25.83203125" customWidth="1"/>
-    <col min="5" max="5" width="26.33203125" customWidth="1"/>
-    <col min="6" max="6" width="28.5" customWidth="1"/>
-  </cols>
-  <sheetData>
-    <row r="1" spans="1:6" ht="18.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A1" s="28" t="s">
-        <v>219</v>
-      </c>
-      <c r="B1" s="19" t="s">
-        <v>164</v>
-      </c>
-      <c r="C1" s="19" t="s">
-        <v>165</v>
-      </c>
-      <c r="D1" s="19" t="s">
-        <v>168</v>
-      </c>
-      <c r="E1" s="19" t="s">
-        <v>166</v>
-      </c>
-      <c r="F1" s="19" t="s">
-        <v>167</v>
-      </c>
-    </row>
-    <row r="2" spans="1:6" ht="34.5" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A2" s="38" t="s">
-        <v>263</v>
-      </c>
-      <c r="B2" s="5" t="s">
-        <v>126</v>
-      </c>
-      <c r="C2" s="8" t="s">
-        <v>60</v>
-      </c>
-      <c r="D2" s="5" t="s">
-        <v>151</v>
-      </c>
-      <c r="E2" s="5" t="s">
-        <v>151</v>
-      </c>
-      <c r="F2" s="5" t="s">
-        <v>10</v>
-      </c>
-    </row>
-    <row r="3" spans="1:6" ht="30.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A3" s="38" t="s">
-        <v>264</v>
-      </c>
-      <c r="B3" s="5" t="s">
-        <v>151</v>
-      </c>
-      <c r="C3" s="5" t="s">
-        <v>13</v>
-      </c>
-      <c r="D3" s="8" t="s">
-        <v>60</v>
-      </c>
-      <c r="E3" s="8" t="s">
-        <v>80</v>
-      </c>
-      <c r="F3" s="5" t="s">
-        <v>13</v>
-      </c>
-    </row>
-    <row r="4" spans="1:6" ht="30.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A4" s="38" t="s">
-        <v>265</v>
-      </c>
-      <c r="B4" s="8" t="s">
-        <v>66</v>
-      </c>
-      <c r="C4" s="5" t="s">
-        <v>126</v>
-      </c>
-      <c r="D4" s="5" t="s">
-        <v>10</v>
-      </c>
-      <c r="E4" s="8" t="s">
-        <v>66</v>
-      </c>
-      <c r="F4" s="5" t="s">
-        <v>126</v>
-      </c>
-    </row>
-    <row r="5" spans="1:6" ht="28.5" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A5" s="38" t="s">
-        <v>266</v>
-      </c>
-      <c r="B5" s="7" t="s">
-        <v>18</v>
-      </c>
-      <c r="C5" s="7" t="s">
-        <v>18</v>
-      </c>
-      <c r="D5" s="7" t="s">
-        <v>18</v>
-      </c>
-      <c r="E5" s="7" t="s">
-        <v>18</v>
-      </c>
-      <c r="F5" s="7" t="s">
-        <v>18</v>
-      </c>
-    </row>
-    <row r="6" spans="1:6" ht="28.5" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A6" s="38" t="s">
-        <v>267</v>
-      </c>
-      <c r="B6" s="5" t="s">
-        <v>13</v>
-      </c>
-      <c r="C6" s="8" t="s">
-        <v>84</v>
-      </c>
-      <c r="D6" s="5" t="s">
-        <v>13</v>
-      </c>
-      <c r="E6" s="8" t="s">
-        <v>60</v>
-      </c>
-      <c r="F6" s="12"/>
-    </row>
-    <row r="7" spans="1:6" ht="28.5" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A7" s="38" t="s">
-        <v>268</v>
-      </c>
-      <c r="B7" s="5" t="s">
-        <v>10</v>
-      </c>
-      <c r="C7" s="5" t="s">
-        <v>151</v>
-      </c>
-      <c r="D7" s="8" t="s">
-        <v>66</v>
-      </c>
-      <c r="E7" s="8" t="s">
-        <v>84</v>
-      </c>
-      <c r="F7" s="5" t="s">
-        <v>151</v>
-      </c>
-    </row>
-    <row r="8" spans="1:6" ht="28.5" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A8" s="38" t="s">
-        <v>269</v>
-      </c>
-      <c r="B8" s="16" t="s">
-        <v>162</v>
-      </c>
-      <c r="C8" s="8" t="s">
-        <v>35</v>
-      </c>
-      <c r="D8" s="5" t="s">
-        <v>126</v>
-      </c>
-      <c r="E8" s="8" t="s">
-        <v>37</v>
-      </c>
-      <c r="F8" s="8" t="s">
-        <v>84</v>
-      </c>
-    </row>
-    <row r="9" spans="1:6" ht="28.5" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A9" s="38" t="s">
-        <v>270</v>
-      </c>
-      <c r="B9" s="7" t="s">
-        <v>18</v>
-      </c>
-      <c r="C9" s="7" t="s">
-        <v>18</v>
-      </c>
-      <c r="D9" s="7" t="s">
-        <v>18</v>
-      </c>
-      <c r="E9" s="7" t="s">
-        <v>18</v>
-      </c>
-      <c r="F9" s="7" t="s">
-        <v>18</v>
-      </c>
-    </row>
-    <row r="10" spans="1:6" ht="28.5" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A10" s="38" t="s">
-        <v>271</v>
-      </c>
-      <c r="B10" s="8" t="s">
-        <v>50</v>
-      </c>
-      <c r="C10" s="8" t="s">
-        <v>92</v>
-      </c>
-      <c r="D10" s="8" t="s">
-        <v>80</v>
-      </c>
-      <c r="E10" s="5" t="s">
-        <v>126</v>
-      </c>
-      <c r="F10" s="8" t="s">
-        <v>80</v>
-      </c>
-    </row>
-    <row r="11" spans="1:6" ht="28.5" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A11" s="38" t="s">
-        <v>272</v>
-      </c>
-      <c r="B11" s="8" t="s">
-        <v>35</v>
-      </c>
-      <c r="C11" s="12"/>
-      <c r="D11" s="12"/>
-      <c r="E11" s="12"/>
-      <c r="F11" s="8" t="s">
-        <v>97</v>
-      </c>
-    </row>
-    <row r="12" spans="1:6" ht="28.5" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A12" s="38" t="s">
-        <v>273</v>
-      </c>
-      <c r="B12" s="12"/>
-      <c r="C12" s="8" t="s">
-        <v>97</v>
-      </c>
-      <c r="D12" s="8" t="s">
-        <v>35</v>
-      </c>
-      <c r="E12" s="12"/>
-      <c r="F12" s="12"/>
-    </row>
-    <row r="13" spans="1:6" ht="28.5" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A13" s="38" t="s">
-        <v>274</v>
-      </c>
-      <c r="B13" s="7" t="s">
-        <v>18</v>
-      </c>
-      <c r="C13" s="7" t="s">
-        <v>18</v>
-      </c>
-      <c r="D13" s="7" t="s">
-        <v>18</v>
-      </c>
-      <c r="E13" s="7" t="s">
-        <v>18</v>
-      </c>
-      <c r="F13" s="7" t="s">
-        <v>18</v>
-      </c>
-    </row>
-    <row r="14" spans="1:6" ht="28.5" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A14" s="38" t="s">
-        <v>275</v>
-      </c>
-      <c r="B14" s="8" t="s">
-        <v>92</v>
-      </c>
-      <c r="C14" s="8" t="s">
-        <v>37</v>
-      </c>
-      <c r="D14" s="8" t="s">
-        <v>50</v>
-      </c>
-      <c r="E14" s="8" t="s">
-        <v>35</v>
-      </c>
-      <c r="F14" s="8" t="s">
-        <v>50</v>
-      </c>
-    </row>
-    <row r="15" spans="1:6" ht="28.5" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A15" s="38" t="s">
-        <v>276</v>
-      </c>
-      <c r="B15" s="12"/>
-      <c r="C15" s="8" t="s">
-        <v>50</v>
-      </c>
-      <c r="D15" s="8" t="s">
-        <v>37</v>
-      </c>
-      <c r="E15" s="8" t="s">
-        <v>97</v>
-      </c>
-      <c r="F15" s="12"/>
-    </row>
-    <row r="16" spans="1:6" ht="28.35" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A16" s="38" t="s">
-        <v>277</v>
-      </c>
-      <c r="B16" s="8" t="s">
-        <v>58</v>
-      </c>
-      <c r="C16" s="8" t="s">
-        <v>58</v>
-      </c>
-      <c r="D16" s="8" t="s">
-        <v>58</v>
-      </c>
-      <c r="E16" s="8" t="s">
-        <v>92</v>
-      </c>
-      <c r="F16" s="12"/>
-    </row>
-  </sheetData>
-  <pageMargins left="0.25" right="0.25" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-  <pageSetup orientation="landscape" horizontalDpi="0" verticalDpi="0" r:id="rId1"/>
-</worksheet>
-</file>
-
-<file path=xl/worksheets/sheet17.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0F00-000000000000}">
-  <dimension ref="A1:F16"/>
-  <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="A2" sqref="A2:A16"/>
-    </sheetView>
-  </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultColWidth="9.33203125" defaultRowHeight="12.75" x14ac:dyDescent="0.2"/>
-  <cols>
-    <col min="1" max="1" width="15.5" customWidth="1"/>
-    <col min="2" max="2" width="25.6640625" customWidth="1"/>
-    <col min="3" max="3" width="23.83203125" customWidth="1"/>
-    <col min="4" max="4" width="23.33203125" customWidth="1"/>
-    <col min="5" max="5" width="24.1640625" customWidth="1"/>
-    <col min="6" max="6" width="26.6640625" customWidth="1"/>
-  </cols>
-  <sheetData>
-    <row r="1" spans="1:6" ht="18.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A1" s="28" t="s">
-        <v>221</v>
-      </c>
-      <c r="B1" s="19" t="s">
-        <v>164</v>
-      </c>
-      <c r="C1" s="19" t="s">
-        <v>165</v>
-      </c>
-      <c r="D1" s="19" t="s">
-        <v>168</v>
-      </c>
-      <c r="E1" s="19" t="s">
-        <v>166</v>
-      </c>
-      <c r="F1" s="19" t="s">
-        <v>167</v>
-      </c>
-    </row>
-    <row r="2" spans="1:6" ht="28.5" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A2" s="38" t="s">
-        <v>263</v>
-      </c>
-      <c r="B2" s="26" t="s">
-        <v>200</v>
-      </c>
-      <c r="C2" s="22" t="s">
-        <v>204</v>
-      </c>
-      <c r="D2" s="12"/>
-      <c r="E2" s="22"/>
-      <c r="F2" s="26" t="s">
-        <v>200</v>
-      </c>
-    </row>
-    <row r="3" spans="1:6" ht="28.5" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A3" s="38" t="s">
-        <v>264</v>
-      </c>
-      <c r="B3" s="26" t="s">
-        <v>200</v>
-      </c>
-      <c r="C3" s="26" t="s">
-        <v>200</v>
-      </c>
-      <c r="D3" s="5" t="s">
-        <v>154</v>
-      </c>
-      <c r="E3" s="25" t="s">
-        <v>215</v>
-      </c>
-      <c r="F3" s="26" t="s">
-        <v>200</v>
-      </c>
-    </row>
-    <row r="4" spans="1:6" ht="28.5" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A4" s="38" t="s">
-        <v>265</v>
-      </c>
-      <c r="B4" s="26" t="s">
-        <v>200</v>
-      </c>
-      <c r="C4" s="26" t="s">
-        <v>200</v>
-      </c>
-      <c r="D4" s="5" t="s">
-        <v>154</v>
-      </c>
-      <c r="E4" s="5"/>
-      <c r="F4" s="5" t="s">
-        <v>107</v>
-      </c>
-    </row>
-    <row r="5" spans="1:6" ht="28.5" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A5" s="38" t="s">
-        <v>266</v>
-      </c>
-      <c r="B5" s="7" t="s">
-        <v>18</v>
-      </c>
-      <c r="C5" s="7" t="s">
-        <v>18</v>
-      </c>
-      <c r="D5" s="7" t="s">
-        <v>18</v>
-      </c>
-      <c r="E5" s="7" t="s">
-        <v>18</v>
-      </c>
-      <c r="F5" s="7" t="s">
-        <v>18</v>
-      </c>
-    </row>
-    <row r="6" spans="1:6" ht="28.5" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A6" s="38" t="s">
-        <v>267</v>
-      </c>
-      <c r="B6" s="22" t="s">
-        <v>203</v>
-      </c>
-      <c r="C6" s="22" t="s">
-        <v>202</v>
-      </c>
-      <c r="D6" s="22" t="s">
-        <v>226</v>
-      </c>
-      <c r="E6" s="22" t="s">
-        <v>227</v>
-      </c>
-      <c r="F6" s="25" t="s">
-        <v>215</v>
-      </c>
-    </row>
-    <row r="7" spans="1:6" ht="28.5" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A7" s="38" t="s">
-        <v>268</v>
-      </c>
-      <c r="B7" s="22"/>
-      <c r="C7" s="25" t="s">
-        <v>215</v>
-      </c>
-      <c r="D7" s="12"/>
-      <c r="E7" s="12"/>
-      <c r="F7" s="12"/>
-    </row>
-    <row r="8" spans="1:6" ht="28.5" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A8" s="38" t="s">
-        <v>269</v>
-      </c>
-      <c r="B8" s="16" t="s">
-        <v>162</v>
-      </c>
-      <c r="C8" s="36" t="s">
-        <v>262</v>
-      </c>
-      <c r="D8" s="5" t="s">
-        <v>107</v>
-      </c>
-      <c r="E8" s="5" t="s">
-        <v>140</v>
-      </c>
-      <c r="F8" s="5" t="s">
-        <v>112</v>
-      </c>
-    </row>
-    <row r="9" spans="1:6" ht="28.5" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A9" s="38" t="s">
-        <v>270</v>
-      </c>
-      <c r="B9" s="7" t="s">
-        <v>18</v>
-      </c>
-      <c r="C9" s="7" t="s">
-        <v>18</v>
-      </c>
-      <c r="D9" s="7" t="s">
-        <v>18</v>
-      </c>
-      <c r="E9" s="7" t="s">
-        <v>18</v>
-      </c>
-      <c r="F9" s="7" t="s">
-        <v>18</v>
-      </c>
-    </row>
-    <row r="10" spans="1:6" ht="28.5" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A10" s="38" t="s">
-        <v>271</v>
-      </c>
-      <c r="B10" s="5" t="s">
-        <v>137</v>
-      </c>
-      <c r="C10" s="5" t="s">
-        <v>118</v>
-      </c>
-      <c r="D10" s="5" t="s">
-        <v>137</v>
-      </c>
-      <c r="E10" s="5" t="s">
-        <v>112</v>
-      </c>
-      <c r="F10" s="5" t="s">
-        <v>118</v>
-      </c>
-    </row>
-    <row r="11" spans="1:6" ht="28.5" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A11" s="38" t="s">
-        <v>272</v>
-      </c>
-      <c r="B11" s="44" t="s">
-        <v>52</v>
-      </c>
-      <c r="C11" s="5" t="s">
-        <v>52</v>
-      </c>
-      <c r="D11" s="5" t="s">
-        <v>52</v>
-      </c>
-      <c r="E11" s="5" t="s">
-        <v>52</v>
-      </c>
-      <c r="F11" s="5" t="s">
-        <v>53</v>
-      </c>
-    </row>
-    <row r="12" spans="1:6" ht="28.5" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A12" s="38" t="s">
-        <v>273</v>
-      </c>
-      <c r="B12" s="45"/>
-      <c r="C12" s="26"/>
-      <c r="D12" s="5" t="s">
-        <v>122</v>
-      </c>
-      <c r="E12" s="22"/>
-      <c r="F12" s="26" t="s">
-        <v>207</v>
-      </c>
-    </row>
-    <row r="13" spans="1:6" ht="28.5" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A13" s="38" t="s">
-        <v>274</v>
-      </c>
-      <c r="B13" s="7" t="s">
-        <v>18</v>
-      </c>
-      <c r="C13" s="7" t="s">
-        <v>18</v>
-      </c>
-      <c r="D13" s="7" t="s">
-        <v>18</v>
-      </c>
-      <c r="E13" s="7" t="s">
-        <v>18</v>
-      </c>
-      <c r="F13" s="7" t="s">
-        <v>18</v>
-      </c>
-    </row>
-    <row r="14" spans="1:6" ht="28.5" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A14" s="38" t="s">
-        <v>275</v>
-      </c>
-      <c r="B14" s="22" t="s">
-        <v>201</v>
-      </c>
-      <c r="C14" s="22" t="s">
-        <v>205</v>
-      </c>
-      <c r="D14" s="12"/>
-      <c r="E14" s="44" t="s">
-        <v>53</v>
-      </c>
-      <c r="F14" s="22" t="s">
-        <v>206</v>
-      </c>
-    </row>
-    <row r="15" spans="1:6" ht="28.5" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A15" s="38" t="s">
-        <v>276</v>
-      </c>
-      <c r="B15" s="22"/>
-      <c r="C15" s="22"/>
-      <c r="D15" s="5" t="s">
-        <v>140</v>
-      </c>
-      <c r="E15" s="45"/>
-      <c r="F15" s="26"/>
-    </row>
-    <row r="16" spans="1:6" ht="28.35" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A16" s="38" t="s">
-        <v>277</v>
-      </c>
-      <c r="B16" s="22"/>
-      <c r="C16" s="5" t="s">
-        <v>122</v>
-      </c>
-      <c r="D16" s="12"/>
-      <c r="E16" s="12"/>
-      <c r="F16" s="26" t="s">
-        <v>200</v>
-      </c>
-    </row>
-  </sheetData>
-  <mergeCells count="2">
-    <mergeCell ref="B11:B12"/>
-    <mergeCell ref="E14:E15"/>
-  </mergeCells>
-  <pageMargins left="0.25" right="0.25" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-  <pageSetup orientation="landscape" horizontalDpi="0" verticalDpi="0" r:id="rId1"/>
-</worksheet>
-</file>
-
-<file path=xl/worksheets/sheet18.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-1000-000000000000}">
-  <dimension ref="A1:F16"/>
-  <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="A2" sqref="A2:A16"/>
+    <sheetView topLeftCell="A4" workbookViewId="0">
+      <selection activeCell="A17" sqref="A17:F28"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="9.33203125" defaultRowHeight="12.75" x14ac:dyDescent="0.2"/>
@@ -7292,7 +7710,7 @@
     </row>
     <row r="2" spans="1:6" ht="28.5" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A2" s="38" t="s">
-        <v>263</v>
+        <v>264</v>
       </c>
       <c r="B2" s="12"/>
       <c r="C2" s="12"/>
@@ -7304,7 +7722,7 @@
     </row>
     <row r="3" spans="1:6" ht="28.5" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A3" s="38" t="s">
-        <v>264</v>
+        <v>265</v>
       </c>
       <c r="B3" s="12"/>
       <c r="C3" s="44" t="s">
@@ -7318,7 +7736,7 @@
     </row>
     <row r="4" spans="1:6" ht="28.5" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A4" s="38" t="s">
-        <v>265</v>
+        <v>266</v>
       </c>
       <c r="B4" s="12"/>
       <c r="C4" s="45"/>
@@ -7328,7 +7746,7 @@
     </row>
     <row r="5" spans="1:6" ht="28.5" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A5" s="38" t="s">
-        <v>266</v>
+        <v>267</v>
       </c>
       <c r="B5" s="7" t="s">
         <v>18</v>
@@ -7348,7 +7766,7 @@
     </row>
     <row r="6" spans="1:6" ht="28.5" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A6" s="38" t="s">
-        <v>267</v>
+        <v>268</v>
       </c>
       <c r="B6" s="12"/>
       <c r="C6" s="5" t="s">
@@ -7366,7 +7784,7 @@
     </row>
     <row r="7" spans="1:6" ht="36" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A7" s="38" t="s">
-        <v>268</v>
+        <v>269</v>
       </c>
       <c r="B7" s="4"/>
       <c r="C7" s="5" t="s">
@@ -7380,7 +7798,7 @@
     </row>
     <row r="8" spans="1:6" ht="36" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A8" s="38" t="s">
-        <v>269</v>
+        <v>270</v>
       </c>
       <c r="B8" s="4"/>
       <c r="C8" s="5" t="s">
@@ -7398,7 +7816,7 @@
     </row>
     <row r="9" spans="1:6" ht="28.5" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A9" s="38" t="s">
-        <v>270</v>
+        <v>271</v>
       </c>
       <c r="B9" s="7" t="s">
         <v>18</v>
@@ -7418,7 +7836,7 @@
     </row>
     <row r="10" spans="1:6" ht="36" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A10" s="38" t="s">
-        <v>271</v>
+        <v>272</v>
       </c>
       <c r="B10" s="5" t="s">
         <v>156</v>
@@ -7438,7 +7856,7 @@
     </row>
     <row r="11" spans="1:6" ht="28.5" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A11" s="38" t="s">
-        <v>272</v>
+        <v>273</v>
       </c>
       <c r="B11" s="12"/>
       <c r="C11" s="5" t="s">
@@ -7450,7 +7868,7 @@
     </row>
     <row r="12" spans="1:6" ht="36" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A12" s="38" t="s">
-        <v>273</v>
+        <v>274</v>
       </c>
       <c r="B12" s="4"/>
       <c r="C12" s="4"/>
@@ -7462,7 +7880,7 @@
     </row>
     <row r="13" spans="1:6" ht="22.5" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A13" s="38" t="s">
-        <v>274</v>
+        <v>275</v>
       </c>
       <c r="B13" s="7" t="s">
         <v>18</v>
@@ -7482,7 +7900,7 @@
     </row>
     <row r="14" spans="1:6" ht="28.5" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A14" s="38" t="s">
-        <v>275</v>
+        <v>276</v>
       </c>
       <c r="B14" s="12"/>
       <c r="C14" s="5" t="s">
@@ -7498,7 +7916,7 @@
     </row>
     <row r="15" spans="1:6" ht="36" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A15" s="38" t="s">
-        <v>276</v>
+        <v>277</v>
       </c>
       <c r="B15" s="4"/>
       <c r="C15" s="5" t="s">
@@ -7516,7 +7934,7 @@
     </row>
     <row r="16" spans="1:6" ht="36" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A16" s="38" t="s">
-        <v>277</v>
+        <v>278</v>
       </c>
       <c r="B16" s="4"/>
       <c r="C16" s="5" t="s">
@@ -7530,6 +7948,142 @@
       </c>
       <c r="F16" s="5" t="s">
         <v>47</v>
+      </c>
+    </row>
+    <row r="17" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="A17">
+        <v>6</v>
+      </c>
+      <c r="B17" t="s">
+        <v>263</v>
+      </c>
+      <c r="C17" t="s">
+        <v>165</v>
+      </c>
+      <c r="D17" t="s">
+        <v>168</v>
+      </c>
+      <c r="E17" t="s">
+        <v>166</v>
+      </c>
+      <c r="F17" t="s">
+        <v>167</v>
+      </c>
+    </row>
+    <row r="18" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="C18" s="38" t="s">
+        <v>265</v>
+      </c>
+      <c r="D18" s="38" t="s">
+        <v>264</v>
+      </c>
+      <c r="E18" s="38" t="s">
+        <v>268</v>
+      </c>
+      <c r="F18" s="38" t="s">
+        <v>265</v>
+      </c>
+    </row>
+    <row r="19" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="C19" s="38" t="s">
+        <v>266</v>
+      </c>
+      <c r="D19" s="38" t="s">
+        <v>268</v>
+      </c>
+      <c r="E19" s="38" t="s">
+        <v>270</v>
+      </c>
+      <c r="F19" s="38" t="s">
+        <v>268</v>
+      </c>
+    </row>
+    <row r="20" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="C20" s="38" t="s">
+        <v>268</v>
+      </c>
+      <c r="D20" s="38" t="s">
+        <v>270</v>
+      </c>
+      <c r="E20" s="38" t="s">
+        <v>271</v>
+      </c>
+      <c r="F20" s="38" t="s">
+        <v>269</v>
+      </c>
+    </row>
+    <row r="21" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="C21" s="38" t="s">
+        <v>269</v>
+      </c>
+      <c r="D21" s="38" t="s">
+        <v>272</v>
+      </c>
+      <c r="E21" s="38" t="s">
+        <v>272</v>
+      </c>
+      <c r="F21" s="38" t="s">
+        <v>270</v>
+      </c>
+    </row>
+    <row r="22" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="C22" s="38" t="s">
+        <v>270</v>
+      </c>
+      <c r="D22" s="38" t="s">
+        <v>277</v>
+      </c>
+      <c r="E22" s="38" t="s">
+        <v>276</v>
+      </c>
+      <c r="F22" s="38" t="s">
+        <v>272</v>
+      </c>
+    </row>
+    <row r="23" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="C23" s="38" t="s">
+        <v>272</v>
+      </c>
+      <c r="D23" s="38" t="s">
+        <v>278</v>
+      </c>
+      <c r="E23" s="38" t="s">
+        <v>277</v>
+      </c>
+      <c r="F23" s="38" t="s">
+        <v>274</v>
+      </c>
+    </row>
+    <row r="24" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="C24" s="38" t="s">
+        <v>273</v>
+      </c>
+      <c r="E24" s="38" t="s">
+        <v>278</v>
+      </c>
+      <c r="F24" s="38" t="s">
+        <v>276</v>
+      </c>
+    </row>
+    <row r="25" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="C25" s="38" t="s">
+        <v>276</v>
+      </c>
+      <c r="F25" s="38" t="s">
+        <v>277</v>
+      </c>
+    </row>
+    <row r="26" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="C26" s="38" t="s">
+        <v>277</v>
+      </c>
+      <c r="F26" s="38" t="s">
+        <v>278</v>
+      </c>
+    </row>
+    <row r="27" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="C27" s="38" t="s">
+        <v>278</v>
       </c>
     </row>
   </sheetData>
@@ -7541,12 +8095,12 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet19.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet18.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-1200-000000000000}">
-  <dimension ref="A1:F16"/>
+  <dimension ref="A1:F20"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="A2" sqref="A2:A16"/>
+      <selection activeCell="A17" sqref="A17:F22"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="9.33203125" defaultRowHeight="12.75" x14ac:dyDescent="0.2"/>
@@ -7581,7 +8135,7 @@
     </row>
     <row r="2" spans="1:6" ht="28.5" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A2" s="38" t="s">
-        <v>263</v>
+        <v>264</v>
       </c>
       <c r="B2" s="12"/>
       <c r="C2" s="12"/>
@@ -7591,7 +8145,7 @@
     </row>
     <row r="3" spans="1:6" ht="28.5" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A3" s="38" t="s">
-        <v>264</v>
+        <v>265</v>
       </c>
       <c r="B3" s="12"/>
       <c r="C3" s="12"/>
@@ -7601,7 +8155,7 @@
     </row>
     <row r="4" spans="1:6" ht="28.5" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A4" s="38" t="s">
-        <v>265</v>
+        <v>266</v>
       </c>
       <c r="B4" s="12"/>
       <c r="C4" s="12"/>
@@ -7611,7 +8165,7 @@
     </row>
     <row r="5" spans="1:6" ht="28.5" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A5" s="38" t="s">
-        <v>266</v>
+        <v>267</v>
       </c>
       <c r="B5" s="12"/>
       <c r="C5" s="12"/>
@@ -7621,7 +8175,7 @@
     </row>
     <row r="6" spans="1:6" ht="28.5" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A6" s="38" t="s">
-        <v>267</v>
+        <v>268</v>
       </c>
       <c r="B6" s="12"/>
       <c r="C6" s="12"/>
@@ -7631,7 +8185,7 @@
     </row>
     <row r="7" spans="1:6" ht="28.5" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A7" s="38" t="s">
-        <v>268</v>
+        <v>269</v>
       </c>
       <c r="B7" s="12"/>
       <c r="C7" s="12"/>
@@ -7641,7 +8195,7 @@
     </row>
     <row r="8" spans="1:6" ht="30.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A8" s="38" t="s">
-        <v>269</v>
+        <v>270</v>
       </c>
       <c r="B8" s="12"/>
       <c r="C8" s="12"/>
@@ -7655,7 +8209,7 @@
     </row>
     <row r="9" spans="1:6" ht="28.5" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A9" s="38" t="s">
-        <v>270</v>
+        <v>271</v>
       </c>
       <c r="B9" s="12"/>
       <c r="C9" s="12"/>
@@ -7669,7 +8223,7 @@
     </row>
     <row r="10" spans="1:6" ht="28.5" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A10" s="38" t="s">
-        <v>271</v>
+        <v>272</v>
       </c>
       <c r="B10" s="12"/>
       <c r="C10" s="5" t="s">
@@ -7687,7 +8241,7 @@
     </row>
     <row r="11" spans="1:6" ht="28.5" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A11" s="38" t="s">
-        <v>272</v>
+        <v>273</v>
       </c>
       <c r="B11" s="12"/>
       <c r="C11" s="12"/>
@@ -7697,7 +8251,7 @@
     </row>
     <row r="12" spans="1:6" ht="28.5" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A12" s="38" t="s">
-        <v>273</v>
+        <v>274</v>
       </c>
       <c r="B12" s="12"/>
       <c r="C12" s="12"/>
@@ -7707,7 +8261,7 @@
     </row>
     <row r="13" spans="1:6" ht="28.5" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A13" s="38" t="s">
-        <v>274</v>
+        <v>275</v>
       </c>
       <c r="B13" s="12"/>
       <c r="C13" s="12"/>
@@ -7717,7 +8271,7 @@
     </row>
     <row r="14" spans="1:6" ht="28.5" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A14" s="38" t="s">
-        <v>275</v>
+        <v>276</v>
       </c>
       <c r="B14" s="12"/>
       <c r="C14" s="12"/>
@@ -7727,7 +8281,7 @@
     </row>
     <row r="15" spans="1:6" ht="28.5" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A15" s="38" t="s">
-        <v>276</v>
+        <v>277</v>
       </c>
       <c r="B15" s="12"/>
       <c r="C15" s="12"/>
@@ -7737,13 +8291,569 @@
     </row>
     <row r="16" spans="1:6" ht="28.35" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A16" s="38" t="s">
-        <v>277</v>
+        <v>278</v>
       </c>
       <c r="B16" s="12"/>
       <c r="C16" s="12"/>
       <c r="D16" s="12"/>
       <c r="E16" s="12"/>
       <c r="F16" s="12"/>
+    </row>
+    <row r="17" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="A17">
+        <v>7</v>
+      </c>
+      <c r="B17" t="s">
+        <v>263</v>
+      </c>
+      <c r="C17" t="s">
+        <v>165</v>
+      </c>
+      <c r="D17" t="s">
+        <v>168</v>
+      </c>
+      <c r="E17" t="s">
+        <v>166</v>
+      </c>
+      <c r="F17" t="s">
+        <v>167</v>
+      </c>
+    </row>
+    <row r="18" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="C18" s="38" t="s">
+        <v>272</v>
+      </c>
+      <c r="D18" s="38" t="s">
+        <v>270</v>
+      </c>
+      <c r="E18" s="38" t="s">
+        <v>270</v>
+      </c>
+      <c r="F18" s="38" t="s">
+        <v>271</v>
+      </c>
+    </row>
+    <row r="19" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="D19" s="38" t="s">
+        <v>271</v>
+      </c>
+      <c r="E19" s="38" t="s">
+        <v>272</v>
+      </c>
+      <c r="F19" s="38" t="s">
+        <v>272</v>
+      </c>
+    </row>
+    <row r="20" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="D20" s="38" t="s">
+        <v>272</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.25" right="0.25" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageSetup orientation="landscape" horizontalDpi="0" verticalDpi="0" r:id="rId1"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet19.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-1400-000000000000}">
+  <dimension ref="A1:F28"/>
+  <sheetViews>
+    <sheetView topLeftCell="A4" workbookViewId="0">
+      <selection activeCell="A17" sqref="A17:F28"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr baseColWidth="10" defaultColWidth="9.33203125" defaultRowHeight="12.75" x14ac:dyDescent="0.2"/>
+  <cols>
+    <col min="1" max="1" width="13.1640625" customWidth="1"/>
+    <col min="2" max="2" width="25.1640625" customWidth="1"/>
+    <col min="3" max="3" width="24.6640625" customWidth="1"/>
+    <col min="4" max="4" width="25.33203125" customWidth="1"/>
+    <col min="5" max="5" width="26" customWidth="1"/>
+    <col min="6" max="6" width="26.33203125" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:6" ht="18.75" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A1" s="27" t="s">
+        <v>217</v>
+      </c>
+      <c r="B1" s="19" t="s">
+        <v>164</v>
+      </c>
+      <c r="C1" s="19" t="s">
+        <v>165</v>
+      </c>
+      <c r="D1" s="19" t="s">
+        <v>168</v>
+      </c>
+      <c r="E1" s="19" t="s">
+        <v>166</v>
+      </c>
+      <c r="F1" s="19" t="s">
+        <v>167</v>
+      </c>
+    </row>
+    <row r="2" spans="1:6" ht="28.5" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A2" s="38" t="s">
+        <v>264</v>
+      </c>
+      <c r="B2" s="8" t="s">
+        <v>74</v>
+      </c>
+      <c r="C2" s="8" t="s">
+        <v>74</v>
+      </c>
+      <c r="D2" s="8" t="s">
+        <v>61</v>
+      </c>
+      <c r="E2" s="5" t="s">
+        <v>104</v>
+      </c>
+      <c r="F2" s="20" t="s">
+        <v>194</v>
+      </c>
+    </row>
+    <row r="3" spans="1:6" ht="28.5" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A3" s="38" t="s">
+        <v>265</v>
+      </c>
+      <c r="B3" s="8" t="s">
+        <v>61</v>
+      </c>
+      <c r="C3" s="5" t="s">
+        <v>131</v>
+      </c>
+      <c r="D3" s="15" t="s">
+        <v>14</v>
+      </c>
+      <c r="E3" s="20" t="s">
+        <v>194</v>
+      </c>
+      <c r="F3" s="8" t="s">
+        <v>74</v>
+      </c>
+    </row>
+    <row r="4" spans="1:6" ht="28.5" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A4" s="38" t="s">
+        <v>266</v>
+      </c>
+      <c r="B4" s="20" t="s">
+        <v>193</v>
+      </c>
+      <c r="C4" s="5" t="s">
+        <v>104</v>
+      </c>
+      <c r="D4" s="5" t="s">
+        <v>131</v>
+      </c>
+      <c r="E4" s="20" t="s">
+        <v>193</v>
+      </c>
+      <c r="F4" s="8" t="s">
+        <v>61</v>
+      </c>
+    </row>
+    <row r="5" spans="1:6" ht="28.5" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A5" s="38" t="s">
+        <v>267</v>
+      </c>
+      <c r="B5" s="7" t="s">
+        <v>18</v>
+      </c>
+      <c r="C5" s="12"/>
+      <c r="D5" s="7" t="s">
+        <v>18</v>
+      </c>
+      <c r="E5" s="7" t="s">
+        <v>18</v>
+      </c>
+      <c r="F5" s="7" t="s">
+        <v>18</v>
+      </c>
+    </row>
+    <row r="6" spans="1:6" ht="28.5" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A6" s="38" t="s">
+        <v>268</v>
+      </c>
+      <c r="B6" s="5" t="s">
+        <v>104</v>
+      </c>
+      <c r="C6" s="8" t="s">
+        <v>61</v>
+      </c>
+      <c r="D6" s="8" t="s">
+        <v>74</v>
+      </c>
+      <c r="E6" s="12"/>
+      <c r="F6" s="5" t="s">
+        <v>131</v>
+      </c>
+    </row>
+    <row r="7" spans="1:6" ht="28.5" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A7" s="38" t="s">
+        <v>269</v>
+      </c>
+      <c r="B7" s="5" t="s">
+        <v>131</v>
+      </c>
+      <c r="C7" s="5" t="s">
+        <v>14</v>
+      </c>
+      <c r="D7" s="5" t="s">
+        <v>104</v>
+      </c>
+      <c r="E7" s="5" t="s">
+        <v>131</v>
+      </c>
+      <c r="F7" s="12"/>
+    </row>
+    <row r="8" spans="1:6" ht="28.5" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A8" s="38" t="s">
+        <v>270</v>
+      </c>
+      <c r="B8" s="16" t="s">
+        <v>162</v>
+      </c>
+      <c r="C8" s="5" t="s">
+        <v>114</v>
+      </c>
+      <c r="D8" s="8" t="s">
+        <v>48</v>
+      </c>
+      <c r="E8" s="5" t="s">
+        <v>114</v>
+      </c>
+      <c r="F8" s="5" t="s">
+        <v>14</v>
+      </c>
+    </row>
+    <row r="9" spans="1:6" ht="28.5" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A9" s="38" t="s">
+        <v>271</v>
+      </c>
+      <c r="B9" s="7" t="s">
+        <v>18</v>
+      </c>
+      <c r="C9" s="7" t="s">
+        <v>18</v>
+      </c>
+      <c r="D9" s="7" t="s">
+        <v>18</v>
+      </c>
+      <c r="E9" s="7" t="s">
+        <v>18</v>
+      </c>
+      <c r="F9" s="7" t="s">
+        <v>18</v>
+      </c>
+    </row>
+    <row r="10" spans="1:6" ht="28.5" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A10" s="38" t="s">
+        <v>272</v>
+      </c>
+      <c r="B10" s="5" t="s">
+        <v>14</v>
+      </c>
+      <c r="C10" s="8" t="s">
+        <v>48</v>
+      </c>
+      <c r="D10" s="5" t="s">
+        <v>143</v>
+      </c>
+      <c r="E10" s="5" t="s">
+        <v>143</v>
+      </c>
+      <c r="F10" s="5" t="s">
+        <v>104</v>
+      </c>
+    </row>
+    <row r="11" spans="1:6" ht="28.5" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A11" s="38" t="s">
+        <v>273</v>
+      </c>
+      <c r="B11" s="8" t="s">
+        <v>94</v>
+      </c>
+      <c r="C11" s="5" t="s">
+        <v>143</v>
+      </c>
+      <c r="D11" s="8" t="s">
+        <v>42</v>
+      </c>
+      <c r="E11" s="8" t="s">
+        <v>94</v>
+      </c>
+      <c r="F11" s="8" t="s">
+        <v>42</v>
+      </c>
+    </row>
+    <row r="12" spans="1:6" ht="28.5" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A12" s="38" t="s">
+        <v>274</v>
+      </c>
+      <c r="B12" s="8" t="s">
+        <v>42</v>
+      </c>
+      <c r="C12" s="12"/>
+      <c r="D12" s="12"/>
+      <c r="E12" s="8" t="s">
+        <v>48</v>
+      </c>
+      <c r="F12" s="8" t="s">
+        <v>94</v>
+      </c>
+    </row>
+    <row r="13" spans="1:6" ht="28.5" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A13" s="38" t="s">
+        <v>275</v>
+      </c>
+      <c r="B13" s="7" t="s">
+        <v>18</v>
+      </c>
+      <c r="C13" s="7" t="s">
+        <v>18</v>
+      </c>
+      <c r="D13" s="7" t="s">
+        <v>18</v>
+      </c>
+      <c r="E13" s="7" t="s">
+        <v>18</v>
+      </c>
+      <c r="F13" s="7" t="s">
+        <v>18</v>
+      </c>
+    </row>
+    <row r="14" spans="1:6" ht="28.5" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A14" s="38" t="s">
+        <v>276</v>
+      </c>
+      <c r="B14" s="5" t="s">
+        <v>143</v>
+      </c>
+      <c r="C14" s="12"/>
+      <c r="D14" s="8" t="s">
+        <v>94</v>
+      </c>
+      <c r="E14" s="12"/>
+      <c r="F14" s="5" t="s">
+        <v>143</v>
+      </c>
+    </row>
+    <row r="15" spans="1:6" ht="28.5" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A15" s="38" t="s">
+        <v>277</v>
+      </c>
+      <c r="B15" s="8" t="s">
+        <v>48</v>
+      </c>
+      <c r="C15" s="8" t="s">
+        <v>42</v>
+      </c>
+      <c r="D15" s="12"/>
+      <c r="E15" s="12"/>
+      <c r="F15" s="12"/>
+    </row>
+    <row r="16" spans="1:6" ht="28.35" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A16" s="38" t="s">
+        <v>278</v>
+      </c>
+      <c r="B16" s="5" t="s">
+        <v>114</v>
+      </c>
+      <c r="C16" s="12"/>
+      <c r="D16" s="5" t="s">
+        <v>114</v>
+      </c>
+      <c r="E16" s="12"/>
+      <c r="F16" s="5" t="s">
+        <v>114</v>
+      </c>
+    </row>
+    <row r="17" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="A17">
+        <v>8</v>
+      </c>
+      <c r="B17" t="s">
+        <v>263</v>
+      </c>
+      <c r="C17" t="s">
+        <v>165</v>
+      </c>
+      <c r="D17" t="s">
+        <v>168</v>
+      </c>
+      <c r="E17" t="s">
+        <v>166</v>
+      </c>
+      <c r="F17" t="s">
+        <v>167</v>
+      </c>
+    </row>
+    <row r="18" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="B18" s="38" t="s">
+        <v>264</v>
+      </c>
+      <c r="C18" s="38" t="s">
+        <v>264</v>
+      </c>
+      <c r="D18" s="38" t="s">
+        <v>264</v>
+      </c>
+      <c r="E18" s="38" t="s">
+        <v>264</v>
+      </c>
+      <c r="F18" s="38" t="s">
+        <v>264</v>
+      </c>
+    </row>
+    <row r="19" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="B19" s="38" t="s">
+        <v>265</v>
+      </c>
+      <c r="C19" s="38" t="s">
+        <v>265</v>
+      </c>
+      <c r="D19" s="38" t="s">
+        <v>265</v>
+      </c>
+      <c r="E19" s="38" t="s">
+        <v>265</v>
+      </c>
+      <c r="F19" s="38" t="s">
+        <v>265</v>
+      </c>
+    </row>
+    <row r="20" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="B20" s="38" t="s">
+        <v>266</v>
+      </c>
+      <c r="C20" s="38" t="s">
+        <v>266</v>
+      </c>
+      <c r="D20" s="38" t="s">
+        <v>266</v>
+      </c>
+      <c r="E20" s="38" t="s">
+        <v>266</v>
+      </c>
+      <c r="F20" s="38" t="s">
+        <v>266</v>
+      </c>
+    </row>
+    <row r="21" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="B21" s="38" t="s">
+        <v>268</v>
+      </c>
+      <c r="C21" s="38" t="s">
+        <v>268</v>
+      </c>
+      <c r="D21" s="38" t="s">
+        <v>268</v>
+      </c>
+      <c r="E21" s="38" t="s">
+        <v>269</v>
+      </c>
+      <c r="F21" s="38" t="s">
+        <v>268</v>
+      </c>
+    </row>
+    <row r="22" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="B22" s="38" t="s">
+        <v>269</v>
+      </c>
+      <c r="C22" s="38" t="s">
+        <v>269</v>
+      </c>
+      <c r="D22" s="38" t="s">
+        <v>269</v>
+      </c>
+      <c r="E22" s="38" t="s">
+        <v>270</v>
+      </c>
+      <c r="F22" s="38" t="s">
+        <v>270</v>
+      </c>
+    </row>
+    <row r="23" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="B23" s="38" t="s">
+        <v>272</v>
+      </c>
+      <c r="C23" s="38" t="s">
+        <v>270</v>
+      </c>
+      <c r="D23" s="38" t="s">
+        <v>270</v>
+      </c>
+      <c r="E23" s="38" t="s">
+        <v>272</v>
+      </c>
+      <c r="F23" s="38" t="s">
+        <v>272</v>
+      </c>
+    </row>
+    <row r="24" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="B24" s="38" t="s">
+        <v>273</v>
+      </c>
+      <c r="C24" s="38" t="s">
+        <v>272</v>
+      </c>
+      <c r="D24" s="38" t="s">
+        <v>272</v>
+      </c>
+      <c r="E24" s="38" t="s">
+        <v>273</v>
+      </c>
+      <c r="F24" s="38" t="s">
+        <v>273</v>
+      </c>
+    </row>
+    <row r="25" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="B25" s="38" t="s">
+        <v>274</v>
+      </c>
+      <c r="C25" s="38" t="s">
+        <v>273</v>
+      </c>
+      <c r="D25" s="38" t="s">
+        <v>273</v>
+      </c>
+      <c r="E25" s="38" t="s">
+        <v>274</v>
+      </c>
+      <c r="F25" s="38" t="s">
+        <v>274</v>
+      </c>
+    </row>
+    <row r="26" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="B26" s="38" t="s">
+        <v>276</v>
+      </c>
+      <c r="C26" s="38" t="s">
+        <v>277</v>
+      </c>
+      <c r="D26" s="38" t="s">
+        <v>276</v>
+      </c>
+      <c r="F26" s="38" t="s">
+        <v>276</v>
+      </c>
+    </row>
+    <row r="27" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="B27" s="38" t="s">
+        <v>277</v>
+      </c>
+      <c r="D27" s="38" t="s">
+        <v>278</v>
+      </c>
+      <c r="F27" s="38" t="s">
+        <v>278</v>
+      </c>
+    </row>
+    <row r="28" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="B28" s="38" t="s">
+        <v>278</v>
+      </c>
     </row>
   </sheetData>
   <pageMargins left="0.25" right="0.25" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
@@ -7985,11 +9095,1715 @@
 </file>
 
 <file path=xl/worksheets/sheet20.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-1300-000000000000}">
-  <dimension ref="A1:O16"/>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-1500-000000000000}">
+  <dimension ref="A1:F28"/>
+  <sheetViews>
+    <sheetView topLeftCell="A13" workbookViewId="0">
+      <selection activeCell="A17" sqref="A17:F28"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr baseColWidth="10" defaultColWidth="9.33203125" defaultRowHeight="12.75" x14ac:dyDescent="0.2"/>
+  <cols>
+    <col min="1" max="1" width="14.83203125" customWidth="1"/>
+    <col min="2" max="2" width="24.5" customWidth="1"/>
+    <col min="3" max="3" width="27.1640625" customWidth="1"/>
+    <col min="4" max="5" width="24.6640625" customWidth="1"/>
+    <col min="6" max="6" width="25.6640625" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:6" ht="18.75" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A1" s="27" t="s">
+        <v>216</v>
+      </c>
+      <c r="B1" s="19" t="s">
+        <v>164</v>
+      </c>
+      <c r="C1" s="19" t="s">
+        <v>165</v>
+      </c>
+      <c r="D1" s="19" t="s">
+        <v>168</v>
+      </c>
+      <c r="E1" s="19" t="s">
+        <v>166</v>
+      </c>
+      <c r="F1" s="19" t="s">
+        <v>167</v>
+      </c>
+    </row>
+    <row r="2" spans="1:6" ht="31.5" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A2" s="38" t="s">
+        <v>264</v>
+      </c>
+      <c r="B2" s="5" t="s">
+        <v>150</v>
+      </c>
+      <c r="C2" s="5" t="s">
+        <v>150</v>
+      </c>
+      <c r="D2" s="12"/>
+      <c r="E2" s="12"/>
+      <c r="F2" s="5" t="s">
+        <v>130</v>
+      </c>
+    </row>
+    <row r="3" spans="1:6" ht="32.25" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A3" s="38" t="s">
+        <v>265</v>
+      </c>
+      <c r="B3" s="5" t="s">
+        <v>105</v>
+      </c>
+      <c r="C3" s="5" t="s">
+        <v>105</v>
+      </c>
+      <c r="D3" s="5" t="s">
+        <v>130</v>
+      </c>
+      <c r="E3" s="5" t="s">
+        <v>64</v>
+      </c>
+      <c r="F3" s="5" t="s">
+        <v>105</v>
+      </c>
+    </row>
+    <row r="4" spans="1:6" ht="32.25" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A4" s="38" t="s">
+        <v>266</v>
+      </c>
+      <c r="B4" s="12"/>
+      <c r="C4" s="5" t="s">
+        <v>153</v>
+      </c>
+      <c r="D4" s="5" t="s">
+        <v>81</v>
+      </c>
+      <c r="E4" s="5" t="s">
+        <v>81</v>
+      </c>
+      <c r="F4" s="5" t="s">
+        <v>150</v>
+      </c>
+    </row>
+    <row r="5" spans="1:6" ht="28.5" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A5" s="38" t="s">
+        <v>267</v>
+      </c>
+      <c r="B5" s="7" t="s">
+        <v>18</v>
+      </c>
+      <c r="C5" s="7" t="s">
+        <v>18</v>
+      </c>
+      <c r="D5" s="7" t="s">
+        <v>18</v>
+      </c>
+      <c r="E5" s="7" t="s">
+        <v>18</v>
+      </c>
+      <c r="F5" s="7" t="s">
+        <v>18</v>
+      </c>
+    </row>
+    <row r="6" spans="1:6" ht="33.75" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A6" s="38" t="s">
+        <v>268</v>
+      </c>
+      <c r="B6" s="5" t="s">
+        <v>130</v>
+      </c>
+      <c r="C6" s="12"/>
+      <c r="D6" s="5" t="s">
+        <v>105</v>
+      </c>
+      <c r="E6" s="5" t="s">
+        <v>130</v>
+      </c>
+      <c r="F6" s="12"/>
+    </row>
+    <row r="7" spans="1:6" ht="37.5" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A7" s="38" t="s">
+        <v>269</v>
+      </c>
+      <c r="B7" s="5" t="s">
+        <v>64</v>
+      </c>
+      <c r="C7" s="5" t="s">
+        <v>130</v>
+      </c>
+      <c r="D7" s="5" t="s">
+        <v>150</v>
+      </c>
+      <c r="E7" s="5" t="s">
+        <v>105</v>
+      </c>
+      <c r="F7" s="4" t="s">
+        <v>22</v>
+      </c>
+    </row>
+    <row r="8" spans="1:6" ht="28.5" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A8" s="38" t="s">
+        <v>270</v>
+      </c>
+      <c r="B8" s="16" t="s">
+        <v>162</v>
+      </c>
+      <c r="C8" s="4" t="s">
+        <v>22</v>
+      </c>
+      <c r="D8" s="5" t="s">
+        <v>64</v>
+      </c>
+      <c r="E8" s="5" t="s">
+        <v>87</v>
+      </c>
+      <c r="F8" s="5" t="s">
+        <v>141</v>
+      </c>
+    </row>
+    <row r="9" spans="1:6" ht="28.5" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A9" s="38" t="s">
+        <v>271</v>
+      </c>
+      <c r="B9" s="7" t="s">
+        <v>18</v>
+      </c>
+      <c r="C9" s="7" t="s">
+        <v>18</v>
+      </c>
+      <c r="D9" s="7" t="s">
+        <v>18</v>
+      </c>
+      <c r="E9" s="7" t="s">
+        <v>18</v>
+      </c>
+      <c r="F9" s="7" t="s">
+        <v>18</v>
+      </c>
+    </row>
+    <row r="10" spans="1:6" ht="32.25" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A10" s="38" t="s">
+        <v>272</v>
+      </c>
+      <c r="B10" s="5" t="s">
+        <v>72</v>
+      </c>
+      <c r="C10" s="5" t="s">
+        <v>81</v>
+      </c>
+      <c r="D10" s="4" t="s">
+        <v>22</v>
+      </c>
+      <c r="E10" s="5" t="s">
+        <v>150</v>
+      </c>
+      <c r="F10" s="5" t="s">
+        <v>153</v>
+      </c>
+    </row>
+    <row r="11" spans="1:6" ht="28.5" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A11" s="38" t="s">
+        <v>273</v>
+      </c>
+      <c r="B11" s="5" t="s">
+        <v>120</v>
+      </c>
+      <c r="C11" s="12"/>
+      <c r="D11" s="5" t="s">
+        <v>141</v>
+      </c>
+      <c r="E11" s="4" t="s">
+        <v>43</v>
+      </c>
+      <c r="F11" s="44" t="s">
+        <v>120</v>
+      </c>
+    </row>
+    <row r="12" spans="1:6" ht="28.5" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A12" s="38" t="s">
+        <v>274</v>
+      </c>
+      <c r="B12" s="5" t="s">
+        <v>141</v>
+      </c>
+      <c r="C12" s="4" t="s">
+        <v>54</v>
+      </c>
+      <c r="D12" s="4" t="s">
+        <v>54</v>
+      </c>
+      <c r="E12" s="5" t="s">
+        <v>98</v>
+      </c>
+      <c r="F12" s="45"/>
+    </row>
+    <row r="13" spans="1:6" ht="28.5" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A13" s="38" t="s">
+        <v>275</v>
+      </c>
+      <c r="B13" s="7" t="s">
+        <v>18</v>
+      </c>
+      <c r="C13" s="7" t="s">
+        <v>18</v>
+      </c>
+      <c r="D13" s="7" t="s">
+        <v>18</v>
+      </c>
+      <c r="E13" s="7" t="s">
+        <v>18</v>
+      </c>
+      <c r="F13" s="7" t="s">
+        <v>18</v>
+      </c>
+    </row>
+    <row r="14" spans="1:6" ht="28.5" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A14" s="38" t="s">
+        <v>276</v>
+      </c>
+      <c r="B14" s="4" t="s">
+        <v>43</v>
+      </c>
+      <c r="C14" s="5" t="s">
+        <v>141</v>
+      </c>
+      <c r="D14" s="14" t="s">
+        <v>124</v>
+      </c>
+      <c r="E14" s="5" t="s">
+        <v>120</v>
+      </c>
+      <c r="F14" s="14" t="s">
+        <v>124</v>
+      </c>
+    </row>
+    <row r="15" spans="1:6" ht="34.5" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A15" s="38" t="s">
+        <v>277</v>
+      </c>
+      <c r="B15" s="12"/>
+      <c r="C15" s="5" t="s">
+        <v>120</v>
+      </c>
+      <c r="D15" s="5" t="s">
+        <v>98</v>
+      </c>
+      <c r="E15" s="5" t="s">
+        <v>141</v>
+      </c>
+      <c r="F15" s="5" t="s">
+        <v>101</v>
+      </c>
+    </row>
+    <row r="16" spans="1:6" ht="33.75" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A16" s="38" t="s">
+        <v>278</v>
+      </c>
+      <c r="B16" s="12"/>
+      <c r="C16" s="12"/>
+      <c r="D16" s="4" t="s">
+        <v>43</v>
+      </c>
+      <c r="E16" s="4" t="s">
+        <v>54</v>
+      </c>
+      <c r="F16" s="5" t="s">
+        <v>98</v>
+      </c>
+    </row>
+    <row r="17" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="A17">
+        <v>9</v>
+      </c>
+      <c r="B17" t="s">
+        <v>263</v>
+      </c>
+      <c r="C17" t="s">
+        <v>165</v>
+      </c>
+      <c r="D17" t="s">
+        <v>168</v>
+      </c>
+      <c r="E17" t="s">
+        <v>166</v>
+      </c>
+      <c r="F17" t="s">
+        <v>167</v>
+      </c>
+    </row>
+    <row r="18" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="B18" s="38" t="s">
+        <v>264</v>
+      </c>
+      <c r="C18" s="38" t="s">
+        <v>264</v>
+      </c>
+      <c r="D18" s="38" t="s">
+        <v>265</v>
+      </c>
+      <c r="E18" s="38" t="s">
+        <v>265</v>
+      </c>
+      <c r="F18" s="38" t="s">
+        <v>264</v>
+      </c>
+    </row>
+    <row r="19" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="B19" s="38" t="s">
+        <v>265</v>
+      </c>
+      <c r="C19" s="38" t="s">
+        <v>265</v>
+      </c>
+      <c r="D19" s="38" t="s">
+        <v>266</v>
+      </c>
+      <c r="E19" s="38" t="s">
+        <v>266</v>
+      </c>
+      <c r="F19" s="38" t="s">
+        <v>265</v>
+      </c>
+    </row>
+    <row r="20" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="B20" s="38" t="s">
+        <v>268</v>
+      </c>
+      <c r="C20" s="38" t="s">
+        <v>266</v>
+      </c>
+      <c r="D20" s="38" t="s">
+        <v>268</v>
+      </c>
+      <c r="E20" s="38" t="s">
+        <v>268</v>
+      </c>
+      <c r="F20" s="38" t="s">
+        <v>266</v>
+      </c>
+    </row>
+    <row r="21" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="B21" s="38" t="s">
+        <v>269</v>
+      </c>
+      <c r="C21" s="38" t="s">
+        <v>269</v>
+      </c>
+      <c r="D21" s="38" t="s">
+        <v>269</v>
+      </c>
+      <c r="E21" s="38" t="s">
+        <v>269</v>
+      </c>
+      <c r="F21" s="38" t="s">
+        <v>269</v>
+      </c>
+    </row>
+    <row r="22" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="B22" s="38" t="s">
+        <v>272</v>
+      </c>
+      <c r="C22" s="38" t="s">
+        <v>270</v>
+      </c>
+      <c r="D22" s="38" t="s">
+        <v>270</v>
+      </c>
+      <c r="E22" s="38" t="s">
+        <v>270</v>
+      </c>
+      <c r="F22" s="38" t="s">
+        <v>270</v>
+      </c>
+    </row>
+    <row r="23" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="B23" s="38" t="s">
+        <v>273</v>
+      </c>
+      <c r="C23" s="38" t="s">
+        <v>272</v>
+      </c>
+      <c r="D23" s="38" t="s">
+        <v>272</v>
+      </c>
+      <c r="E23" s="38" t="s">
+        <v>272</v>
+      </c>
+      <c r="F23" s="38" t="s">
+        <v>272</v>
+      </c>
+    </row>
+    <row r="24" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="B24" s="38" t="s">
+        <v>274</v>
+      </c>
+      <c r="C24" s="38" t="s">
+        <v>274</v>
+      </c>
+      <c r="D24" s="38" t="s">
+        <v>273</v>
+      </c>
+      <c r="E24" s="38" t="s">
+        <v>273</v>
+      </c>
+      <c r="F24" s="38" t="s">
+        <v>273</v>
+      </c>
+    </row>
+    <row r="25" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="B25" s="38" t="s">
+        <v>276</v>
+      </c>
+      <c r="C25" s="38" t="s">
+        <v>276</v>
+      </c>
+      <c r="D25" s="38" t="s">
+        <v>274</v>
+      </c>
+      <c r="E25" s="38" t="s">
+        <v>274</v>
+      </c>
+      <c r="F25" s="38" t="s">
+        <v>274</v>
+      </c>
+    </row>
+    <row r="26" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="C26" s="38" t="s">
+        <v>277</v>
+      </c>
+      <c r="D26" s="38" t="s">
+        <v>276</v>
+      </c>
+      <c r="E26" s="38" t="s">
+        <v>276</v>
+      </c>
+      <c r="F26" s="38" t="s">
+        <v>276</v>
+      </c>
+    </row>
+    <row r="27" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="D27" s="38" t="s">
+        <v>277</v>
+      </c>
+      <c r="E27" s="38" t="s">
+        <v>277</v>
+      </c>
+      <c r="F27" s="38" t="s">
+        <v>277</v>
+      </c>
+    </row>
+    <row r="28" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="D28" s="38" t="s">
+        <v>278</v>
+      </c>
+      <c r="E28" s="38" t="s">
+        <v>278</v>
+      </c>
+      <c r="F28" s="38" t="s">
+        <v>278</v>
+      </c>
+    </row>
+  </sheetData>
+  <mergeCells count="1">
+    <mergeCell ref="F11:F12"/>
+  </mergeCells>
+  <pageMargins left="0.25" right="0.25" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageSetup orientation="landscape" horizontalDpi="0" verticalDpi="0" r:id="rId1"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet21.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0F00-000000000000}">
+  <dimension ref="A1:F22"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="A2" sqref="A2:A16"/>
+      <selection activeCell="A17" sqref="A17:F22"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr baseColWidth="10" defaultColWidth="9.33203125" defaultRowHeight="12.75" x14ac:dyDescent="0.2"/>
+  <cols>
+    <col min="1" max="1" width="15.5" customWidth="1"/>
+    <col min="2" max="2" width="25.6640625" customWidth="1"/>
+    <col min="3" max="3" width="23.83203125" customWidth="1"/>
+    <col min="4" max="4" width="23.33203125" customWidth="1"/>
+    <col min="5" max="5" width="24.1640625" customWidth="1"/>
+    <col min="6" max="6" width="26.6640625" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:6" ht="18.75" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A1" s="28" t="s">
+        <v>221</v>
+      </c>
+      <c r="B1" s="19" t="s">
+        <v>164</v>
+      </c>
+      <c r="C1" s="19" t="s">
+        <v>165</v>
+      </c>
+      <c r="D1" s="19" t="s">
+        <v>168</v>
+      </c>
+      <c r="E1" s="19" t="s">
+        <v>166</v>
+      </c>
+      <c r="F1" s="19" t="s">
+        <v>167</v>
+      </c>
+    </row>
+    <row r="2" spans="1:6" ht="28.5" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A2" s="38" t="s">
+        <v>264</v>
+      </c>
+      <c r="B2" s="26" t="s">
+        <v>200</v>
+      </c>
+      <c r="C2" s="22" t="s">
+        <v>204</v>
+      </c>
+      <c r="D2" s="12"/>
+      <c r="E2" s="22"/>
+      <c r="F2" s="26" t="s">
+        <v>200</v>
+      </c>
+    </row>
+    <row r="3" spans="1:6" ht="28.5" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A3" s="38" t="s">
+        <v>265</v>
+      </c>
+      <c r="B3" s="26" t="s">
+        <v>200</v>
+      </c>
+      <c r="C3" s="26" t="s">
+        <v>200</v>
+      </c>
+      <c r="D3" s="5" t="s">
+        <v>154</v>
+      </c>
+      <c r="E3" s="25" t="s">
+        <v>215</v>
+      </c>
+      <c r="F3" s="26" t="s">
+        <v>200</v>
+      </c>
+    </row>
+    <row r="4" spans="1:6" ht="28.5" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A4" s="38" t="s">
+        <v>266</v>
+      </c>
+      <c r="B4" s="26" t="s">
+        <v>200</v>
+      </c>
+      <c r="C4" s="26" t="s">
+        <v>200</v>
+      </c>
+      <c r="D4" s="5" t="s">
+        <v>154</v>
+      </c>
+      <c r="E4" s="5"/>
+      <c r="F4" s="5" t="s">
+        <v>107</v>
+      </c>
+    </row>
+    <row r="5" spans="1:6" ht="28.5" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A5" s="38" t="s">
+        <v>267</v>
+      </c>
+      <c r="B5" s="7" t="s">
+        <v>18</v>
+      </c>
+      <c r="C5" s="7" t="s">
+        <v>18</v>
+      </c>
+      <c r="D5" s="7" t="s">
+        <v>18</v>
+      </c>
+      <c r="E5" s="7" t="s">
+        <v>18</v>
+      </c>
+      <c r="F5" s="7" t="s">
+        <v>18</v>
+      </c>
+    </row>
+    <row r="6" spans="1:6" ht="28.5" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A6" s="38" t="s">
+        <v>268</v>
+      </c>
+      <c r="B6" s="22" t="s">
+        <v>203</v>
+      </c>
+      <c r="C6" s="22" t="s">
+        <v>202</v>
+      </c>
+      <c r="D6" s="22" t="s">
+        <v>226</v>
+      </c>
+      <c r="E6" s="22" t="s">
+        <v>227</v>
+      </c>
+      <c r="F6" s="25" t="s">
+        <v>215</v>
+      </c>
+    </row>
+    <row r="7" spans="1:6" ht="28.5" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A7" s="38" t="s">
+        <v>269</v>
+      </c>
+      <c r="B7" s="22"/>
+      <c r="C7" s="25" t="s">
+        <v>215</v>
+      </c>
+      <c r="D7" s="12"/>
+      <c r="E7" s="12"/>
+      <c r="F7" s="12"/>
+    </row>
+    <row r="8" spans="1:6" ht="28.5" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A8" s="38" t="s">
+        <v>270</v>
+      </c>
+      <c r="B8" s="16" t="s">
+        <v>162</v>
+      </c>
+      <c r="C8" s="36" t="s">
+        <v>262</v>
+      </c>
+      <c r="D8" s="5" t="s">
+        <v>107</v>
+      </c>
+      <c r="E8" s="5" t="s">
+        <v>140</v>
+      </c>
+      <c r="F8" s="5" t="s">
+        <v>112</v>
+      </c>
+    </row>
+    <row r="9" spans="1:6" ht="28.5" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A9" s="38" t="s">
+        <v>271</v>
+      </c>
+      <c r="B9" s="7" t="s">
+        <v>18</v>
+      </c>
+      <c r="C9" s="7" t="s">
+        <v>18</v>
+      </c>
+      <c r="D9" s="7" t="s">
+        <v>18</v>
+      </c>
+      <c r="E9" s="7" t="s">
+        <v>18</v>
+      </c>
+      <c r="F9" s="7" t="s">
+        <v>18</v>
+      </c>
+    </row>
+    <row r="10" spans="1:6" ht="28.5" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A10" s="38" t="s">
+        <v>272</v>
+      </c>
+      <c r="B10" s="5" t="s">
+        <v>137</v>
+      </c>
+      <c r="C10" s="5" t="s">
+        <v>118</v>
+      </c>
+      <c r="D10" s="5" t="s">
+        <v>137</v>
+      </c>
+      <c r="E10" s="5" t="s">
+        <v>112</v>
+      </c>
+      <c r="F10" s="5" t="s">
+        <v>118</v>
+      </c>
+    </row>
+    <row r="11" spans="1:6" ht="28.5" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A11" s="38" t="s">
+        <v>273</v>
+      </c>
+      <c r="B11" s="44" t="s">
+        <v>52</v>
+      </c>
+      <c r="C11" s="5" t="s">
+        <v>52</v>
+      </c>
+      <c r="D11" s="5" t="s">
+        <v>52</v>
+      </c>
+      <c r="E11" s="5" t="s">
+        <v>52</v>
+      </c>
+      <c r="F11" s="5" t="s">
+        <v>53</v>
+      </c>
+    </row>
+    <row r="12" spans="1:6" ht="28.5" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A12" s="38" t="s">
+        <v>274</v>
+      </c>
+      <c r="B12" s="45"/>
+      <c r="C12" s="26"/>
+      <c r="D12" s="5" t="s">
+        <v>122</v>
+      </c>
+      <c r="E12" s="22"/>
+      <c r="F12" s="26" t="s">
+        <v>207</v>
+      </c>
+    </row>
+    <row r="13" spans="1:6" ht="28.5" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A13" s="38" t="s">
+        <v>275</v>
+      </c>
+      <c r="B13" s="7" t="s">
+        <v>18</v>
+      </c>
+      <c r="C13" s="7" t="s">
+        <v>18</v>
+      </c>
+      <c r="D13" s="7" t="s">
+        <v>18</v>
+      </c>
+      <c r="E13" s="7" t="s">
+        <v>18</v>
+      </c>
+      <c r="F13" s="7" t="s">
+        <v>18</v>
+      </c>
+    </row>
+    <row r="14" spans="1:6" ht="28.5" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A14" s="38" t="s">
+        <v>276</v>
+      </c>
+      <c r="B14" s="22" t="s">
+        <v>201</v>
+      </c>
+      <c r="C14" s="22" t="s">
+        <v>205</v>
+      </c>
+      <c r="D14" s="12"/>
+      <c r="E14" s="44" t="s">
+        <v>53</v>
+      </c>
+      <c r="F14" s="22" t="s">
+        <v>206</v>
+      </c>
+    </row>
+    <row r="15" spans="1:6" ht="28.5" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A15" s="38" t="s">
+        <v>277</v>
+      </c>
+      <c r="B15" s="22"/>
+      <c r="C15" s="22"/>
+      <c r="D15" s="5" t="s">
+        <v>140</v>
+      </c>
+      <c r="E15" s="45"/>
+      <c r="F15" s="26"/>
+    </row>
+    <row r="16" spans="1:6" ht="28.35" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A16" s="38" t="s">
+        <v>278</v>
+      </c>
+      <c r="B16" s="22"/>
+      <c r="C16" s="5" t="s">
+        <v>122</v>
+      </c>
+      <c r="D16" s="12"/>
+      <c r="E16" s="12"/>
+      <c r="F16" s="26" t="s">
+        <v>200</v>
+      </c>
+    </row>
+    <row r="17" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="A17">
+        <v>10</v>
+      </c>
+      <c r="B17" t="s">
+        <v>263</v>
+      </c>
+      <c r="C17" t="s">
+        <v>165</v>
+      </c>
+      <c r="D17" t="s">
+        <v>168</v>
+      </c>
+      <c r="E17" t="s">
+        <v>166</v>
+      </c>
+      <c r="F17" t="s">
+        <v>167</v>
+      </c>
+    </row>
+    <row r="18" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="B18" s="38" t="s">
+        <v>269</v>
+      </c>
+      <c r="C18" s="38" t="s">
+        <v>268</v>
+      </c>
+      <c r="D18" s="38" t="s">
+        <v>264</v>
+      </c>
+      <c r="E18" s="38" t="s">
+        <v>264</v>
+      </c>
+      <c r="F18" s="38" t="s">
+        <v>269</v>
+      </c>
+    </row>
+    <row r="19" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="B19" s="38" t="s">
+        <v>277</v>
+      </c>
+      <c r="C19" s="38" t="s">
+        <v>274</v>
+      </c>
+      <c r="D19" s="38" t="s">
+        <v>269</v>
+      </c>
+      <c r="E19" s="38" t="s">
+        <v>266</v>
+      </c>
+      <c r="F19" s="38" t="s">
+        <v>277</v>
+      </c>
+    </row>
+    <row r="20" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="B20" s="38" t="s">
+        <v>278</v>
+      </c>
+      <c r="C20" s="38" t="s">
+        <v>277</v>
+      </c>
+      <c r="D20" s="38" t="s">
+        <v>276</v>
+      </c>
+      <c r="E20" s="38" t="s">
+        <v>269</v>
+      </c>
+    </row>
+    <row r="21" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="D21" s="38" t="s">
+        <v>278</v>
+      </c>
+      <c r="E21" s="38" t="s">
+        <v>274</v>
+      </c>
+    </row>
+    <row r="22" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="E22" s="38" t="s">
+        <v>278</v>
+      </c>
+    </row>
+  </sheetData>
+  <mergeCells count="2">
+    <mergeCell ref="B11:B12"/>
+    <mergeCell ref="E14:E15"/>
+  </mergeCells>
+  <pageMargins left="0.25" right="0.25" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageSetup orientation="landscape" horizontalDpi="0" verticalDpi="0" r:id="rId1"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet22.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-1600-000000000000}">
+  <dimension ref="A1:F22"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="A17" sqref="A17:F22"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr baseColWidth="10" defaultColWidth="9.33203125" defaultRowHeight="12.75" x14ac:dyDescent="0.2"/>
+  <cols>
+    <col min="1" max="1" width="14.5" customWidth="1"/>
+    <col min="2" max="2" width="25.6640625" customWidth="1"/>
+    <col min="3" max="3" width="25.5" customWidth="1"/>
+    <col min="4" max="4" width="26" customWidth="1"/>
+    <col min="5" max="5" width="25" customWidth="1"/>
+    <col min="6" max="6" width="24.83203125" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:6" ht="18.75" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A1" s="13" t="s">
+        <v>161</v>
+      </c>
+      <c r="B1" s="19" t="s">
+        <v>164</v>
+      </c>
+      <c r="C1" s="19" t="s">
+        <v>165</v>
+      </c>
+      <c r="D1" s="19" t="s">
+        <v>168</v>
+      </c>
+      <c r="E1" s="19" t="s">
+        <v>166</v>
+      </c>
+      <c r="F1" s="19" t="s">
+        <v>167</v>
+      </c>
+    </row>
+    <row r="2" spans="1:6" ht="33" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A2" s="38" t="s">
+        <v>264</v>
+      </c>
+      <c r="B2" s="22" t="s">
+        <v>211</v>
+      </c>
+      <c r="C2" s="5" t="s">
+        <v>103</v>
+      </c>
+      <c r="D2" s="5" t="s">
+        <v>103</v>
+      </c>
+      <c r="E2" s="12"/>
+      <c r="F2" s="5" t="s">
+        <v>103</v>
+      </c>
+    </row>
+    <row r="3" spans="1:6" ht="28.5" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A3" s="38" t="s">
+        <v>265</v>
+      </c>
+      <c r="B3" s="12"/>
+      <c r="C3" s="25" t="s">
+        <v>215</v>
+      </c>
+      <c r="D3" s="12"/>
+      <c r="E3" s="5" t="s">
+        <v>132</v>
+      </c>
+      <c r="F3" s="25" t="s">
+        <v>215</v>
+      </c>
+    </row>
+    <row r="4" spans="1:6" ht="28.5" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A4" s="38" t="s">
+        <v>266</v>
+      </c>
+      <c r="B4" s="5" t="s">
+        <v>133</v>
+      </c>
+      <c r="C4" s="12"/>
+      <c r="D4" s="25" t="s">
+        <v>215</v>
+      </c>
+      <c r="E4" s="25" t="s">
+        <v>215</v>
+      </c>
+      <c r="F4" s="12"/>
+    </row>
+    <row r="5" spans="1:6" ht="28.5" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A5" s="38" t="s">
+        <v>267</v>
+      </c>
+      <c r="B5" s="7" t="s">
+        <v>18</v>
+      </c>
+      <c r="C5" s="7" t="s">
+        <v>18</v>
+      </c>
+      <c r="D5" s="7" t="s">
+        <v>18</v>
+      </c>
+      <c r="E5" s="7" t="s">
+        <v>18</v>
+      </c>
+      <c r="F5" s="7" t="s">
+        <v>18</v>
+      </c>
+    </row>
+    <row r="6" spans="1:6" ht="28.5" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A6" s="38" t="s">
+        <v>268</v>
+      </c>
+      <c r="B6" s="12"/>
+      <c r="C6" s="25" t="s">
+        <v>215</v>
+      </c>
+      <c r="D6" s="12"/>
+      <c r="E6" s="12"/>
+      <c r="F6" s="5" t="s">
+        <v>68</v>
+      </c>
+    </row>
+    <row r="7" spans="1:6" ht="28.5" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A7" s="38" t="s">
+        <v>269</v>
+      </c>
+      <c r="B7" s="5" t="s">
+        <v>103</v>
+      </c>
+      <c r="C7" s="12"/>
+      <c r="D7" s="12"/>
+      <c r="E7" s="5" t="s">
+        <v>68</v>
+      </c>
+      <c r="F7" s="5" t="s">
+        <v>110</v>
+      </c>
+    </row>
+    <row r="8" spans="1:6" ht="28.5" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A8" s="38" t="s">
+        <v>270</v>
+      </c>
+      <c r="B8" s="16" t="s">
+        <v>162</v>
+      </c>
+      <c r="C8" s="5" t="s">
+        <v>138</v>
+      </c>
+      <c r="D8" s="5" t="s">
+        <v>115</v>
+      </c>
+      <c r="E8" s="5" t="s">
+        <v>103</v>
+      </c>
+      <c r="F8" s="5" t="s">
+        <v>116</v>
+      </c>
+    </row>
+    <row r="9" spans="1:6" ht="28.5" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A9" s="38" t="s">
+        <v>271</v>
+      </c>
+      <c r="B9" s="7" t="s">
+        <v>18</v>
+      </c>
+      <c r="C9" s="7" t="s">
+        <v>18</v>
+      </c>
+      <c r="D9" s="7" t="s">
+        <v>18</v>
+      </c>
+      <c r="E9" s="7" t="s">
+        <v>18</v>
+      </c>
+      <c r="F9" s="7" t="s">
+        <v>18</v>
+      </c>
+    </row>
+    <row r="10" spans="1:6" ht="28.5" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A10" s="38" t="s">
+        <v>272</v>
+      </c>
+      <c r="B10" s="5" t="s">
+        <v>138</v>
+      </c>
+      <c r="C10" s="5" t="s">
+        <v>160</v>
+      </c>
+      <c r="D10" s="5" t="s">
+        <v>160</v>
+      </c>
+      <c r="E10" s="5" t="s">
+        <v>93</v>
+      </c>
+      <c r="F10" s="5" t="s">
+        <v>133</v>
+      </c>
+    </row>
+    <row r="11" spans="1:6" ht="28.5" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A11" s="38" t="s">
+        <v>273</v>
+      </c>
+      <c r="B11" s="22" t="s">
+        <v>213</v>
+      </c>
+      <c r="C11" s="12"/>
+      <c r="D11" s="12"/>
+      <c r="E11" s="44" t="s">
+        <v>116</v>
+      </c>
+      <c r="F11" s="12"/>
+    </row>
+    <row r="12" spans="1:6" ht="28.5" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A12" s="38" t="s">
+        <v>274</v>
+      </c>
+      <c r="B12" s="12"/>
+      <c r="C12" s="5" t="s">
+        <v>116</v>
+      </c>
+      <c r="D12" s="5" t="s">
+        <v>138</v>
+      </c>
+      <c r="E12" s="45"/>
+      <c r="F12" s="25" t="s">
+        <v>215</v>
+      </c>
+    </row>
+    <row r="13" spans="1:6" ht="32.25" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A13" s="38" t="s">
+        <v>275</v>
+      </c>
+      <c r="B13" s="7" t="s">
+        <v>18</v>
+      </c>
+      <c r="C13" s="7" t="s">
+        <v>18</v>
+      </c>
+      <c r="D13" s="7" t="s">
+        <v>18</v>
+      </c>
+      <c r="E13" s="7" t="s">
+        <v>18</v>
+      </c>
+      <c r="F13" s="7" t="s">
+        <v>18</v>
+      </c>
+    </row>
+    <row r="14" spans="1:6" ht="33" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A14" s="38" t="s">
+        <v>276</v>
+      </c>
+      <c r="B14" s="5" t="s">
+        <v>116</v>
+      </c>
+      <c r="C14" s="25" t="s">
+        <v>215</v>
+      </c>
+      <c r="D14" s="5" t="s">
+        <v>138</v>
+      </c>
+      <c r="E14" s="25"/>
+      <c r="F14" s="25" t="s">
+        <v>215</v>
+      </c>
+    </row>
+    <row r="15" spans="1:6" ht="28.5" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A15" s="38" t="s">
+        <v>277</v>
+      </c>
+      <c r="B15" s="5" t="s">
+        <v>148</v>
+      </c>
+      <c r="C15" s="12"/>
+      <c r="D15" s="12"/>
+      <c r="E15" s="12"/>
+      <c r="F15" s="12"/>
+    </row>
+    <row r="16" spans="1:6" ht="33" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A16" s="38" t="s">
+        <v>278</v>
+      </c>
+      <c r="B16" s="12"/>
+      <c r="C16" s="5" t="s">
+        <v>93</v>
+      </c>
+      <c r="D16" s="5" t="s">
+        <v>148</v>
+      </c>
+      <c r="E16" s="5" t="s">
+        <v>149</v>
+      </c>
+      <c r="F16" s="5" t="s">
+        <v>138</v>
+      </c>
+    </row>
+    <row r="17" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="A17">
+        <v>11</v>
+      </c>
+      <c r="B17" t="s">
+        <v>263</v>
+      </c>
+      <c r="C17" t="s">
+        <v>165</v>
+      </c>
+      <c r="D17" t="s">
+        <v>168</v>
+      </c>
+      <c r="E17" t="s">
+        <v>166</v>
+      </c>
+      <c r="F17" t="s">
+        <v>167</v>
+      </c>
+    </row>
+    <row r="18" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="B18" s="38" t="s">
+        <v>265</v>
+      </c>
+      <c r="C18" s="38" t="s">
+        <v>266</v>
+      </c>
+      <c r="D18" s="38" t="s">
+        <v>265</v>
+      </c>
+      <c r="E18" s="38" t="s">
+        <v>264</v>
+      </c>
+      <c r="F18" s="38" t="s">
+        <v>266</v>
+      </c>
+    </row>
+    <row r="19" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="B19" s="38" t="s">
+        <v>268</v>
+      </c>
+      <c r="C19" s="38" t="s">
+        <v>269</v>
+      </c>
+      <c r="D19" s="38" t="s">
+        <v>268</v>
+      </c>
+      <c r="E19" s="38" t="s">
+        <v>268</v>
+      </c>
+      <c r="F19" s="38" t="s">
+        <v>273</v>
+      </c>
+    </row>
+    <row r="20" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="B20" s="38" t="s">
+        <v>274</v>
+      </c>
+      <c r="C20" s="38" t="s">
+        <v>273</v>
+      </c>
+      <c r="D20" s="38" t="s">
+        <v>269</v>
+      </c>
+      <c r="E20" s="38" t="s">
+        <v>276</v>
+      </c>
+      <c r="F20" s="38" t="s">
+        <v>277</v>
+      </c>
+    </row>
+    <row r="21" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="B21" s="38" t="s">
+        <v>278</v>
+      </c>
+      <c r="C21" s="38" t="s">
+        <v>277</v>
+      </c>
+      <c r="D21" s="38" t="s">
+        <v>273</v>
+      </c>
+      <c r="E21" s="38" t="s">
+        <v>277</v>
+      </c>
+    </row>
+    <row r="22" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="D22" s="38" t="s">
+        <v>277</v>
+      </c>
+    </row>
+  </sheetData>
+  <mergeCells count="1">
+    <mergeCell ref="E11:E12"/>
+  </mergeCells>
+  <pageMargins left="0.25" right="0.25" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageSetup orientation="landscape" horizontalDpi="0" verticalDpi="0" r:id="rId1"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet23.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-1700-000000000000}">
+  <dimension ref="A1:F23"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="A17" sqref="A17:F23"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr baseColWidth="10" defaultColWidth="9.33203125" defaultRowHeight="12.75" x14ac:dyDescent="0.2"/>
+  <cols>
+    <col min="1" max="1" width="10.83203125" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="25.33203125" customWidth="1"/>
+    <col min="3" max="3" width="24.33203125" customWidth="1"/>
+    <col min="4" max="4" width="25" customWidth="1"/>
+    <col min="5" max="5" width="27.1640625" customWidth="1"/>
+    <col min="6" max="6" width="27.5" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:6" ht="18.75" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A1" s="28" t="s">
+        <v>172</v>
+      </c>
+      <c r="B1" s="19" t="s">
+        <v>164</v>
+      </c>
+      <c r="C1" s="19" t="s">
+        <v>165</v>
+      </c>
+      <c r="D1" s="19" t="s">
+        <v>168</v>
+      </c>
+      <c r="E1" s="19" t="s">
+        <v>166</v>
+      </c>
+      <c r="F1" s="19" t="s">
+        <v>167</v>
+      </c>
+    </row>
+    <row r="2" spans="1:6" ht="28.5" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A2" s="38" t="s">
+        <v>264</v>
+      </c>
+      <c r="B2" s="5" t="s">
+        <v>7</v>
+      </c>
+      <c r="C2" s="25" t="s">
+        <v>215</v>
+      </c>
+      <c r="D2" s="5" t="s">
+        <v>7</v>
+      </c>
+      <c r="E2" s="8" t="s">
+        <v>62</v>
+      </c>
+      <c r="F2" s="9" t="s">
+        <v>77</v>
+      </c>
+    </row>
+    <row r="3" spans="1:6" ht="28.5" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A3" s="38" t="s">
+        <v>265</v>
+      </c>
+      <c r="B3" s="8" t="s">
+        <v>78</v>
+      </c>
+      <c r="C3" s="22" t="s">
+        <v>209</v>
+      </c>
+      <c r="D3" s="12"/>
+      <c r="E3" s="22"/>
+      <c r="F3" s="12"/>
+    </row>
+    <row r="4" spans="1:6" ht="28.5" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A4" s="38" t="s">
+        <v>266</v>
+      </c>
+      <c r="B4" s="12"/>
+      <c r="C4" s="12"/>
+      <c r="D4" s="12"/>
+      <c r="E4" s="14" t="s">
+        <v>134</v>
+      </c>
+      <c r="F4" s="12"/>
+    </row>
+    <row r="5" spans="1:6" ht="28.5" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A5" s="38" t="s">
+        <v>267</v>
+      </c>
+      <c r="B5" s="7" t="s">
+        <v>18</v>
+      </c>
+      <c r="C5" s="7" t="s">
+        <v>18</v>
+      </c>
+      <c r="D5" s="7" t="s">
+        <v>18</v>
+      </c>
+      <c r="E5" s="7" t="s">
+        <v>18</v>
+      </c>
+      <c r="F5" s="7" t="s">
+        <v>18</v>
+      </c>
+    </row>
+    <row r="6" spans="1:6" ht="28.5" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A6" s="38" t="s">
+        <v>268</v>
+      </c>
+      <c r="B6" s="6" t="s">
+        <v>83</v>
+      </c>
+      <c r="C6" s="12"/>
+      <c r="D6" s="12"/>
+      <c r="E6" s="5" t="s">
+        <v>20</v>
+      </c>
+      <c r="F6" s="6" t="s">
+        <v>83</v>
+      </c>
+    </row>
+    <row r="7" spans="1:6" ht="36" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A7" s="38" t="s">
+        <v>269</v>
+      </c>
+      <c r="B7" s="22" t="s">
+        <v>214</v>
+      </c>
+      <c r="C7" s="6" t="s">
+        <v>69</v>
+      </c>
+      <c r="D7" s="5" t="s">
+        <v>20</v>
+      </c>
+      <c r="E7" s="12"/>
+      <c r="F7" s="12"/>
+    </row>
+    <row r="8" spans="1:6" ht="28.5" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A8" s="38" t="s">
+        <v>270</v>
+      </c>
+      <c r="B8" s="16" t="s">
+        <v>162</v>
+      </c>
+      <c r="C8" s="6" t="s">
+        <v>88</v>
+      </c>
+      <c r="D8" s="8" t="s">
+        <v>89</v>
+      </c>
+      <c r="E8" s="8" t="s">
+        <v>89</v>
+      </c>
+      <c r="F8" s="6" t="s">
+        <v>69</v>
+      </c>
+    </row>
+    <row r="9" spans="1:6" ht="28.5" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A9" s="38" t="s">
+        <v>271</v>
+      </c>
+      <c r="B9" s="7" t="s">
+        <v>18</v>
+      </c>
+      <c r="C9" s="7" t="s">
+        <v>18</v>
+      </c>
+      <c r="D9" s="7" t="s">
+        <v>18</v>
+      </c>
+      <c r="E9" s="7" t="s">
+        <v>18</v>
+      </c>
+      <c r="F9" s="7" t="s">
+        <v>18</v>
+      </c>
+    </row>
+    <row r="10" spans="1:6" ht="32.25" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A10" s="38" t="s">
+        <v>272</v>
+      </c>
+      <c r="B10" s="9" t="s">
+        <v>77</v>
+      </c>
+      <c r="C10" s="5" t="s">
+        <v>134</v>
+      </c>
+      <c r="D10" s="6" t="s">
+        <v>88</v>
+      </c>
+      <c r="E10" s="8" t="s">
+        <v>78</v>
+      </c>
+      <c r="F10" s="8" t="s">
+        <v>62</v>
+      </c>
+    </row>
+    <row r="11" spans="1:6" ht="28.5" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A11" s="38" t="s">
+        <v>273</v>
+      </c>
+      <c r="B11" s="12"/>
+      <c r="C11" s="25"/>
+      <c r="D11" s="25" t="s">
+        <v>215</v>
+      </c>
+      <c r="E11" s="12"/>
+      <c r="F11" s="22" t="s">
+        <v>210</v>
+      </c>
+    </row>
+    <row r="12" spans="1:6" ht="28.5" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A12" s="38" t="s">
+        <v>274</v>
+      </c>
+      <c r="B12" s="22" t="s">
+        <v>212</v>
+      </c>
+      <c r="C12" s="26" t="s">
+        <v>208</v>
+      </c>
+      <c r="D12" s="12"/>
+      <c r="E12" s="14" t="s">
+        <v>146</v>
+      </c>
+      <c r="F12" s="25" t="s">
+        <v>215</v>
+      </c>
+    </row>
+    <row r="13" spans="1:6" ht="28.5" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A13" s="38" t="s">
+        <v>275</v>
+      </c>
+      <c r="B13" s="7" t="s">
+        <v>18</v>
+      </c>
+      <c r="C13" s="7" t="s">
+        <v>18</v>
+      </c>
+      <c r="D13" s="7" t="s">
+        <v>18</v>
+      </c>
+      <c r="E13" s="7" t="s">
+        <v>18</v>
+      </c>
+      <c r="F13" s="7" t="s">
+        <v>18</v>
+      </c>
+    </row>
+    <row r="14" spans="1:6" ht="28.5" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A14" s="38" t="s">
+        <v>276</v>
+      </c>
+      <c r="B14" s="12"/>
+      <c r="C14" s="4" t="s">
+        <v>56</v>
+      </c>
+      <c r="D14" s="12"/>
+      <c r="E14" s="25" t="s">
+        <v>215</v>
+      </c>
+      <c r="F14" s="8" t="s">
+        <v>45</v>
+      </c>
+    </row>
+    <row r="15" spans="1:6" ht="30.75" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A15" s="38" t="s">
+        <v>277</v>
+      </c>
+      <c r="B15" s="8" t="s">
+        <v>45</v>
+      </c>
+      <c r="C15" s="12"/>
+      <c r="D15" s="4" t="s">
+        <v>56</v>
+      </c>
+      <c r="E15" s="12"/>
+      <c r="F15" s="12"/>
+    </row>
+    <row r="16" spans="1:6" ht="39" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A16" s="38" t="s">
+        <v>278</v>
+      </c>
+      <c r="B16" s="4" t="s">
+        <v>46</v>
+      </c>
+      <c r="C16" s="14" t="s">
+        <v>146</v>
+      </c>
+      <c r="D16" s="12"/>
+      <c r="E16" s="12"/>
+      <c r="F16" s="4" t="s">
+        <v>46</v>
+      </c>
+    </row>
+    <row r="17" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="A17">
+        <v>12</v>
+      </c>
+      <c r="B17" t="s">
+        <v>263</v>
+      </c>
+      <c r="C17" t="s">
+        <v>165</v>
+      </c>
+      <c r="D17" t="s">
+        <v>168</v>
+      </c>
+      <c r="E17" t="s">
+        <v>166</v>
+      </c>
+      <c r="F17" t="s">
+        <v>167</v>
+      </c>
+    </row>
+    <row r="18" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="B18" s="38" t="s">
+        <v>266</v>
+      </c>
+      <c r="C18" s="38" t="s">
+        <v>266</v>
+      </c>
+      <c r="D18" s="38" t="s">
+        <v>265</v>
+      </c>
+      <c r="E18" s="38" t="s">
+        <v>265</v>
+      </c>
+      <c r="F18" s="38" t="s">
+        <v>265</v>
+      </c>
+    </row>
+    <row r="19" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="B19" s="38" t="s">
+        <v>273</v>
+      </c>
+      <c r="C19" s="38" t="s">
+        <v>268</v>
+      </c>
+      <c r="D19" s="38" t="s">
+        <v>266</v>
+      </c>
+      <c r="E19" s="38" t="s">
+        <v>269</v>
+      </c>
+      <c r="F19" s="38" t="s">
+        <v>266</v>
+      </c>
+    </row>
+    <row r="20" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="B20" s="38" t="s">
+        <v>276</v>
+      </c>
+      <c r="C20" s="38" t="s">
+        <v>273</v>
+      </c>
+      <c r="D20" s="38" t="s">
+        <v>268</v>
+      </c>
+      <c r="E20" s="38" t="s">
+        <v>273</v>
+      </c>
+      <c r="F20" s="38" t="s">
+        <v>269</v>
+      </c>
+    </row>
+    <row r="21" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="C21" s="38" t="s">
+        <v>277</v>
+      </c>
+      <c r="D21" s="38" t="s">
+        <v>274</v>
+      </c>
+      <c r="E21" s="38" t="s">
+        <v>277</v>
+      </c>
+      <c r="F21" s="38" t="s">
+        <v>277</v>
+      </c>
+    </row>
+    <row r="22" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="D22" s="38" t="s">
+        <v>276</v>
+      </c>
+      <c r="E22" s="38" t="s">
+        <v>278</v>
+      </c>
+    </row>
+    <row r="23" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="D23" s="38" t="s">
+        <v>278</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.25" right="0.25" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageSetup orientation="landscape" horizontalDpi="0" verticalDpi="0" r:id="rId1"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet24.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-1300-000000000000}">
+  <dimension ref="A1:O17"/>
+  <sheetViews>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="A11" activeCellId="7" sqref="A2 A4 A6 A7 A8 A9 A10 A11"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="9.33203125" defaultRowHeight="12.75" x14ac:dyDescent="0.2"/>
@@ -8024,7 +10838,7 @@
     </row>
     <row r="2" spans="1:15" ht="35.25" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A2" s="38" t="s">
-        <v>263</v>
+        <v>264</v>
       </c>
       <c r="B2" s="12"/>
       <c r="C2" s="12"/>
@@ -8034,7 +10848,7 @@
     </row>
     <row r="3" spans="1:15" ht="28.5" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A3" s="38" t="s">
-        <v>264</v>
+        <v>265</v>
       </c>
       <c r="B3" s="12"/>
       <c r="C3" s="12"/>
@@ -8046,7 +10860,7 @@
     </row>
     <row r="4" spans="1:15" ht="28.5" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A4" s="38" t="s">
-        <v>265</v>
+        <v>266</v>
       </c>
       <c r="B4" s="12"/>
       <c r="C4" s="12"/>
@@ -8056,7 +10870,7 @@
     </row>
     <row r="5" spans="1:15" ht="28.5" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A5" s="38" t="s">
-        <v>266</v>
+        <v>267</v>
       </c>
       <c r="B5" s="7" t="s">
         <v>18</v>
@@ -8076,7 +10890,7 @@
     </row>
     <row r="6" spans="1:15" ht="28.5" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A6" s="38" t="s">
-        <v>267</v>
+        <v>268</v>
       </c>
       <c r="B6" s="12"/>
       <c r="C6" s="9" t="s">
@@ -8088,7 +10902,7 @@
     </row>
     <row r="7" spans="1:15" ht="28.5" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A7" s="38" t="s">
-        <v>268</v>
+        <v>269</v>
       </c>
       <c r="B7" s="12"/>
       <c r="C7" s="12"/>
@@ -8098,7 +10912,7 @@
     </row>
     <row r="8" spans="1:15" ht="28.5" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A8" s="38" t="s">
-        <v>269</v>
+        <v>270</v>
       </c>
       <c r="B8" s="16" t="s">
         <v>162</v>
@@ -8116,7 +10930,7 @@
     </row>
     <row r="9" spans="1:15" ht="28.5" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A9" s="38" t="s">
-        <v>270</v>
+        <v>271</v>
       </c>
       <c r="B9" s="7" t="s">
         <v>18</v>
@@ -8137,7 +10951,7 @@
     </row>
     <row r="10" spans="1:15" ht="28.5" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A10" s="38" t="s">
-        <v>271</v>
+        <v>272</v>
       </c>
       <c r="B10" s="16" t="s">
         <v>231</v>
@@ -8157,7 +10971,7 @@
     </row>
     <row r="11" spans="1:15" ht="30" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A11" s="38" t="s">
-        <v>272</v>
+        <v>273</v>
       </c>
       <c r="B11" s="12"/>
       <c r="C11" s="16" t="s">
@@ -8175,7 +10989,7 @@
     </row>
     <row r="12" spans="1:15" ht="28.5" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A12" s="38" t="s">
-        <v>273</v>
+        <v>274</v>
       </c>
       <c r="B12" s="9" t="s">
         <v>121</v>
@@ -8187,7 +11001,7 @@
     </row>
     <row r="13" spans="1:15" ht="28.5" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A13" s="38" t="s">
-        <v>274</v>
+        <v>275</v>
       </c>
       <c r="B13" s="7" t="s">
         <v>18</v>
@@ -8207,7 +11021,7 @@
     </row>
     <row r="14" spans="1:15" ht="28.5" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A14" s="38" t="s">
-        <v>275</v>
+        <v>276</v>
       </c>
       <c r="B14" s="12"/>
       <c r="C14" s="12"/>
@@ -8217,7 +11031,7 @@
     </row>
     <row r="15" spans="1:15" ht="28.5" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A15" s="38" t="s">
-        <v>276</v>
+        <v>277</v>
       </c>
       <c r="B15" s="12"/>
       <c r="C15" s="12"/>
@@ -8227,7 +11041,7 @@
     </row>
     <row r="16" spans="1:15" ht="28.35" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A16" s="38" t="s">
-        <v>277</v>
+        <v>278</v>
       </c>
       <c r="B16" s="12"/>
       <c r="C16" s="12"/>
@@ -8235,1255 +11049,24 @@
       <c r="E16" s="12"/>
       <c r="F16" s="12"/>
     </row>
-  </sheetData>
-  <pageMargins left="0.25" right="0.25" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-  <pageSetup orientation="landscape" horizontalDpi="0" verticalDpi="0" r:id="rId1"/>
-</worksheet>
-</file>
-
-<file path=xl/worksheets/sheet21.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-1400-000000000000}">
-  <dimension ref="A1:F16"/>
-  <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="A2" sqref="A2:A16"/>
-    </sheetView>
-  </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultColWidth="9.33203125" defaultRowHeight="12.75" x14ac:dyDescent="0.2"/>
-  <cols>
-    <col min="1" max="1" width="13.1640625" customWidth="1"/>
-    <col min="2" max="2" width="25.1640625" customWidth="1"/>
-    <col min="3" max="3" width="24.6640625" customWidth="1"/>
-    <col min="4" max="4" width="25.33203125" customWidth="1"/>
-    <col min="5" max="5" width="26" customWidth="1"/>
-    <col min="6" max="6" width="26.33203125" customWidth="1"/>
-  </cols>
-  <sheetData>
-    <row r="1" spans="1:6" ht="18.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A1" s="27" t="s">
-        <v>217</v>
-      </c>
-      <c r="B1" s="19" t="s">
-        <v>164</v>
-      </c>
-      <c r="C1" s="19" t="s">
+    <row r="17" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="A17">
+        <v>13</v>
+      </c>
+      <c r="B17" t="s">
+        <v>263</v>
+      </c>
+      <c r="C17" t="s">
         <v>165</v>
       </c>
-      <c r="D1" s="19" t="s">
+      <c r="D17" t="s">
         <v>168</v>
       </c>
-      <c r="E1" s="19" t="s">
+      <c r="E17" t="s">
         <v>166</v>
       </c>
-      <c r="F1" s="19" t="s">
+      <c r="F17" t="s">
         <v>167</v>
-      </c>
-    </row>
-    <row r="2" spans="1:6" ht="28.5" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A2" s="38" t="s">
-        <v>263</v>
-      </c>
-      <c r="B2" s="8" t="s">
-        <v>74</v>
-      </c>
-      <c r="C2" s="8" t="s">
-        <v>74</v>
-      </c>
-      <c r="D2" s="8" t="s">
-        <v>61</v>
-      </c>
-      <c r="E2" s="5" t="s">
-        <v>104</v>
-      </c>
-      <c r="F2" s="20" t="s">
-        <v>194</v>
-      </c>
-    </row>
-    <row r="3" spans="1:6" ht="28.5" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A3" s="38" t="s">
-        <v>264</v>
-      </c>
-      <c r="B3" s="8" t="s">
-        <v>61</v>
-      </c>
-      <c r="C3" s="5" t="s">
-        <v>131</v>
-      </c>
-      <c r="D3" s="15" t="s">
-        <v>14</v>
-      </c>
-      <c r="E3" s="20" t="s">
-        <v>194</v>
-      </c>
-      <c r="F3" s="8" t="s">
-        <v>74</v>
-      </c>
-    </row>
-    <row r="4" spans="1:6" ht="28.5" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A4" s="38" t="s">
-        <v>265</v>
-      </c>
-      <c r="B4" s="20" t="s">
-        <v>193</v>
-      </c>
-      <c r="C4" s="5" t="s">
-        <v>104</v>
-      </c>
-      <c r="D4" s="5" t="s">
-        <v>131</v>
-      </c>
-      <c r="E4" s="20" t="s">
-        <v>193</v>
-      </c>
-      <c r="F4" s="8" t="s">
-        <v>61</v>
-      </c>
-    </row>
-    <row r="5" spans="1:6" ht="28.5" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A5" s="38" t="s">
-        <v>266</v>
-      </c>
-      <c r="B5" s="7" t="s">
-        <v>18</v>
-      </c>
-      <c r="C5" s="12"/>
-      <c r="D5" s="7" t="s">
-        <v>18</v>
-      </c>
-      <c r="E5" s="7" t="s">
-        <v>18</v>
-      </c>
-      <c r="F5" s="7" t="s">
-        <v>18</v>
-      </c>
-    </row>
-    <row r="6" spans="1:6" ht="28.5" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A6" s="38" t="s">
-        <v>267</v>
-      </c>
-      <c r="B6" s="5" t="s">
-        <v>104</v>
-      </c>
-      <c r="C6" s="8" t="s">
-        <v>61</v>
-      </c>
-      <c r="D6" s="8" t="s">
-        <v>74</v>
-      </c>
-      <c r="E6" s="12"/>
-      <c r="F6" s="5" t="s">
-        <v>131</v>
-      </c>
-    </row>
-    <row r="7" spans="1:6" ht="28.5" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A7" s="38" t="s">
-        <v>268</v>
-      </c>
-      <c r="B7" s="5" t="s">
-        <v>131</v>
-      </c>
-      <c r="C7" s="5" t="s">
-        <v>14</v>
-      </c>
-      <c r="D7" s="5" t="s">
-        <v>104</v>
-      </c>
-      <c r="E7" s="5" t="s">
-        <v>131</v>
-      </c>
-      <c r="F7" s="12"/>
-    </row>
-    <row r="8" spans="1:6" ht="28.5" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A8" s="38" t="s">
-        <v>269</v>
-      </c>
-      <c r="B8" s="16" t="s">
-        <v>162</v>
-      </c>
-      <c r="C8" s="5" t="s">
-        <v>114</v>
-      </c>
-      <c r="D8" s="8" t="s">
-        <v>48</v>
-      </c>
-      <c r="E8" s="5" t="s">
-        <v>114</v>
-      </c>
-      <c r="F8" s="5" t="s">
-        <v>14</v>
-      </c>
-    </row>
-    <row r="9" spans="1:6" ht="28.5" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A9" s="38" t="s">
-        <v>270</v>
-      </c>
-      <c r="B9" s="7" t="s">
-        <v>18</v>
-      </c>
-      <c r="C9" s="7" t="s">
-        <v>18</v>
-      </c>
-      <c r="D9" s="7" t="s">
-        <v>18</v>
-      </c>
-      <c r="E9" s="7" t="s">
-        <v>18</v>
-      </c>
-      <c r="F9" s="7" t="s">
-        <v>18</v>
-      </c>
-    </row>
-    <row r="10" spans="1:6" ht="28.5" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A10" s="38" t="s">
-        <v>271</v>
-      </c>
-      <c r="B10" s="5" t="s">
-        <v>14</v>
-      </c>
-      <c r="C10" s="8" t="s">
-        <v>48</v>
-      </c>
-      <c r="D10" s="5" t="s">
-        <v>143</v>
-      </c>
-      <c r="E10" s="5" t="s">
-        <v>143</v>
-      </c>
-      <c r="F10" s="5" t="s">
-        <v>104</v>
-      </c>
-    </row>
-    <row r="11" spans="1:6" ht="28.5" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A11" s="38" t="s">
-        <v>272</v>
-      </c>
-      <c r="B11" s="8" t="s">
-        <v>94</v>
-      </c>
-      <c r="C11" s="5" t="s">
-        <v>143</v>
-      </c>
-      <c r="D11" s="8" t="s">
-        <v>42</v>
-      </c>
-      <c r="E11" s="8" t="s">
-        <v>94</v>
-      </c>
-      <c r="F11" s="8" t="s">
-        <v>42</v>
-      </c>
-    </row>
-    <row r="12" spans="1:6" ht="28.5" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A12" s="38" t="s">
-        <v>273</v>
-      </c>
-      <c r="B12" s="8" t="s">
-        <v>42</v>
-      </c>
-      <c r="C12" s="12"/>
-      <c r="D12" s="12"/>
-      <c r="E12" s="8" t="s">
-        <v>48</v>
-      </c>
-      <c r="F12" s="8" t="s">
-        <v>94</v>
-      </c>
-    </row>
-    <row r="13" spans="1:6" ht="28.5" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A13" s="38" t="s">
-        <v>274</v>
-      </c>
-      <c r="B13" s="7" t="s">
-        <v>18</v>
-      </c>
-      <c r="C13" s="7" t="s">
-        <v>18</v>
-      </c>
-      <c r="D13" s="7" t="s">
-        <v>18</v>
-      </c>
-      <c r="E13" s="7" t="s">
-        <v>18</v>
-      </c>
-      <c r="F13" s="7" t="s">
-        <v>18</v>
-      </c>
-    </row>
-    <row r="14" spans="1:6" ht="28.5" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A14" s="38" t="s">
-        <v>275</v>
-      </c>
-      <c r="B14" s="5" t="s">
-        <v>143</v>
-      </c>
-      <c r="C14" s="12"/>
-      <c r="D14" s="8" t="s">
-        <v>94</v>
-      </c>
-      <c r="E14" s="12"/>
-      <c r="F14" s="5" t="s">
-        <v>143</v>
-      </c>
-    </row>
-    <row r="15" spans="1:6" ht="28.5" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A15" s="38" t="s">
-        <v>276</v>
-      </c>
-      <c r="B15" s="8" t="s">
-        <v>48</v>
-      </c>
-      <c r="C15" s="8" t="s">
-        <v>42</v>
-      </c>
-      <c r="D15" s="12"/>
-      <c r="E15" s="12"/>
-      <c r="F15" s="12"/>
-    </row>
-    <row r="16" spans="1:6" ht="28.35" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A16" s="38" t="s">
-        <v>277</v>
-      </c>
-      <c r="B16" s="5" t="s">
-        <v>114</v>
-      </c>
-      <c r="C16" s="12"/>
-      <c r="D16" s="5" t="s">
-        <v>114</v>
-      </c>
-      <c r="E16" s="12"/>
-      <c r="F16" s="5" t="s">
-        <v>114</v>
-      </c>
-    </row>
-  </sheetData>
-  <pageMargins left="0.25" right="0.25" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-  <pageSetup orientation="landscape" horizontalDpi="0" verticalDpi="0" r:id="rId1"/>
-</worksheet>
-</file>
-
-<file path=xl/worksheets/sheet22.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-1500-000000000000}">
-  <dimension ref="A1:F16"/>
-  <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="A2" sqref="A2:A16"/>
-    </sheetView>
-  </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultColWidth="9.33203125" defaultRowHeight="12.75" x14ac:dyDescent="0.2"/>
-  <cols>
-    <col min="1" max="1" width="14.83203125" customWidth="1"/>
-    <col min="2" max="2" width="24.5" customWidth="1"/>
-    <col min="3" max="3" width="27.1640625" customWidth="1"/>
-    <col min="4" max="5" width="24.6640625" customWidth="1"/>
-    <col min="6" max="6" width="25.6640625" customWidth="1"/>
-  </cols>
-  <sheetData>
-    <row r="1" spans="1:6" ht="18.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A1" s="27" t="s">
-        <v>216</v>
-      </c>
-      <c r="B1" s="19" t="s">
-        <v>164</v>
-      </c>
-      <c r="C1" s="19" t="s">
-        <v>165</v>
-      </c>
-      <c r="D1" s="19" t="s">
-        <v>168</v>
-      </c>
-      <c r="E1" s="19" t="s">
-        <v>166</v>
-      </c>
-      <c r="F1" s="19" t="s">
-        <v>167</v>
-      </c>
-    </row>
-    <row r="2" spans="1:6" ht="31.5" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A2" s="38" t="s">
-        <v>263</v>
-      </c>
-      <c r="B2" s="5" t="s">
-        <v>150</v>
-      </c>
-      <c r="C2" s="5" t="s">
-        <v>150</v>
-      </c>
-      <c r="D2" s="12"/>
-      <c r="E2" s="12"/>
-      <c r="F2" s="5" t="s">
-        <v>130</v>
-      </c>
-    </row>
-    <row r="3" spans="1:6" ht="32.25" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A3" s="38" t="s">
-        <v>264</v>
-      </c>
-      <c r="B3" s="5" t="s">
-        <v>105</v>
-      </c>
-      <c r="C3" s="5" t="s">
-        <v>105</v>
-      </c>
-      <c r="D3" s="5" t="s">
-        <v>130</v>
-      </c>
-      <c r="E3" s="5" t="s">
-        <v>64</v>
-      </c>
-      <c r="F3" s="5" t="s">
-        <v>105</v>
-      </c>
-    </row>
-    <row r="4" spans="1:6" ht="32.25" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A4" s="38" t="s">
-        <v>265</v>
-      </c>
-      <c r="B4" s="12"/>
-      <c r="C4" s="5" t="s">
-        <v>153</v>
-      </c>
-      <c r="D4" s="5" t="s">
-        <v>81</v>
-      </c>
-      <c r="E4" s="5" t="s">
-        <v>81</v>
-      </c>
-      <c r="F4" s="5" t="s">
-        <v>150</v>
-      </c>
-    </row>
-    <row r="5" spans="1:6" ht="28.5" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A5" s="38" t="s">
-        <v>266</v>
-      </c>
-      <c r="B5" s="7" t="s">
-        <v>18</v>
-      </c>
-      <c r="C5" s="7" t="s">
-        <v>18</v>
-      </c>
-      <c r="D5" s="7" t="s">
-        <v>18</v>
-      </c>
-      <c r="E5" s="7" t="s">
-        <v>18</v>
-      </c>
-      <c r="F5" s="7" t="s">
-        <v>18</v>
-      </c>
-    </row>
-    <row r="6" spans="1:6" ht="33.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A6" s="38" t="s">
-        <v>267</v>
-      </c>
-      <c r="B6" s="5" t="s">
-        <v>130</v>
-      </c>
-      <c r="C6" s="12"/>
-      <c r="D6" s="5" t="s">
-        <v>105</v>
-      </c>
-      <c r="E6" s="5" t="s">
-        <v>130</v>
-      </c>
-      <c r="F6" s="12"/>
-    </row>
-    <row r="7" spans="1:6" ht="37.5" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A7" s="38" t="s">
-        <v>268</v>
-      </c>
-      <c r="B7" s="5" t="s">
-        <v>64</v>
-      </c>
-      <c r="C7" s="5" t="s">
-        <v>130</v>
-      </c>
-      <c r="D7" s="5" t="s">
-        <v>150</v>
-      </c>
-      <c r="E7" s="5" t="s">
-        <v>105</v>
-      </c>
-      <c r="F7" s="4" t="s">
-        <v>22</v>
-      </c>
-    </row>
-    <row r="8" spans="1:6" ht="28.5" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A8" s="38" t="s">
-        <v>269</v>
-      </c>
-      <c r="B8" s="16" t="s">
-        <v>162</v>
-      </c>
-      <c r="C8" s="4" t="s">
-        <v>22</v>
-      </c>
-      <c r="D8" s="5" t="s">
-        <v>64</v>
-      </c>
-      <c r="E8" s="5" t="s">
-        <v>87</v>
-      </c>
-      <c r="F8" s="5" t="s">
-        <v>141</v>
-      </c>
-    </row>
-    <row r="9" spans="1:6" ht="28.5" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A9" s="38" t="s">
-        <v>270</v>
-      </c>
-      <c r="B9" s="7" t="s">
-        <v>18</v>
-      </c>
-      <c r="C9" s="7" t="s">
-        <v>18</v>
-      </c>
-      <c r="D9" s="7" t="s">
-        <v>18</v>
-      </c>
-      <c r="E9" s="7" t="s">
-        <v>18</v>
-      </c>
-      <c r="F9" s="7" t="s">
-        <v>18</v>
-      </c>
-    </row>
-    <row r="10" spans="1:6" ht="32.25" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A10" s="38" t="s">
-        <v>271</v>
-      </c>
-      <c r="B10" s="5" t="s">
-        <v>72</v>
-      </c>
-      <c r="C10" s="5" t="s">
-        <v>81</v>
-      </c>
-      <c r="D10" s="4" t="s">
-        <v>22</v>
-      </c>
-      <c r="E10" s="5" t="s">
-        <v>150</v>
-      </c>
-      <c r="F10" s="5" t="s">
-        <v>153</v>
-      </c>
-    </row>
-    <row r="11" spans="1:6" ht="28.5" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A11" s="38" t="s">
-        <v>272</v>
-      </c>
-      <c r="B11" s="5" t="s">
-        <v>120</v>
-      </c>
-      <c r="C11" s="12"/>
-      <c r="D11" s="5" t="s">
-        <v>141</v>
-      </c>
-      <c r="E11" s="4" t="s">
-        <v>43</v>
-      </c>
-      <c r="F11" s="44" t="s">
-        <v>120</v>
-      </c>
-    </row>
-    <row r="12" spans="1:6" ht="28.5" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A12" s="38" t="s">
-        <v>273</v>
-      </c>
-      <c r="B12" s="5" t="s">
-        <v>141</v>
-      </c>
-      <c r="C12" s="4" t="s">
-        <v>54</v>
-      </c>
-      <c r="D12" s="4" t="s">
-        <v>54</v>
-      </c>
-      <c r="E12" s="5" t="s">
-        <v>98</v>
-      </c>
-      <c r="F12" s="45"/>
-    </row>
-    <row r="13" spans="1:6" ht="28.5" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A13" s="38" t="s">
-        <v>274</v>
-      </c>
-      <c r="B13" s="7" t="s">
-        <v>18</v>
-      </c>
-      <c r="C13" s="7" t="s">
-        <v>18</v>
-      </c>
-      <c r="D13" s="7" t="s">
-        <v>18</v>
-      </c>
-      <c r="E13" s="7" t="s">
-        <v>18</v>
-      </c>
-      <c r="F13" s="7" t="s">
-        <v>18</v>
-      </c>
-    </row>
-    <row r="14" spans="1:6" ht="28.5" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A14" s="38" t="s">
-        <v>275</v>
-      </c>
-      <c r="B14" s="4" t="s">
-        <v>43</v>
-      </c>
-      <c r="C14" s="5" t="s">
-        <v>141</v>
-      </c>
-      <c r="D14" s="14" t="s">
-        <v>124</v>
-      </c>
-      <c r="E14" s="5" t="s">
-        <v>120</v>
-      </c>
-      <c r="F14" s="14" t="s">
-        <v>124</v>
-      </c>
-    </row>
-    <row r="15" spans="1:6" ht="34.5" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A15" s="38" t="s">
-        <v>276</v>
-      </c>
-      <c r="B15" s="12"/>
-      <c r="C15" s="5" t="s">
-        <v>120</v>
-      </c>
-      <c r="D15" s="5" t="s">
-        <v>98</v>
-      </c>
-      <c r="E15" s="5" t="s">
-        <v>141</v>
-      </c>
-      <c r="F15" s="5" t="s">
-        <v>101</v>
-      </c>
-    </row>
-    <row r="16" spans="1:6" ht="33.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A16" s="38" t="s">
-        <v>277</v>
-      </c>
-      <c r="B16" s="12"/>
-      <c r="C16" s="12"/>
-      <c r="D16" s="4" t="s">
-        <v>43</v>
-      </c>
-      <c r="E16" s="4" t="s">
-        <v>54</v>
-      </c>
-      <c r="F16" s="5" t="s">
-        <v>98</v>
-      </c>
-    </row>
-  </sheetData>
-  <mergeCells count="1">
-    <mergeCell ref="F11:F12"/>
-  </mergeCells>
-  <pageMargins left="0.25" right="0.25" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-  <pageSetup orientation="landscape" horizontalDpi="0" verticalDpi="0" r:id="rId1"/>
-</worksheet>
-</file>
-
-<file path=xl/worksheets/sheet23.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-1600-000000000000}">
-  <dimension ref="A1:F16"/>
-  <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="A2" sqref="A2:A16"/>
-    </sheetView>
-  </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultColWidth="9.33203125" defaultRowHeight="12.75" x14ac:dyDescent="0.2"/>
-  <cols>
-    <col min="1" max="1" width="14.5" customWidth="1"/>
-    <col min="2" max="2" width="25.6640625" customWidth="1"/>
-    <col min="3" max="3" width="25.5" customWidth="1"/>
-    <col min="4" max="4" width="26" customWidth="1"/>
-    <col min="5" max="5" width="25" customWidth="1"/>
-    <col min="6" max="6" width="24.83203125" customWidth="1"/>
-  </cols>
-  <sheetData>
-    <row r="1" spans="1:6" ht="18.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A1" s="13" t="s">
-        <v>161</v>
-      </c>
-      <c r="B1" s="19" t="s">
-        <v>164</v>
-      </c>
-      <c r="C1" s="19" t="s">
-        <v>165</v>
-      </c>
-      <c r="D1" s="19" t="s">
-        <v>168</v>
-      </c>
-      <c r="E1" s="19" t="s">
-        <v>166</v>
-      </c>
-      <c r="F1" s="19" t="s">
-        <v>167</v>
-      </c>
-    </row>
-    <row r="2" spans="1:6" ht="33" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A2" s="38" t="s">
-        <v>263</v>
-      </c>
-      <c r="B2" s="22" t="s">
-        <v>211</v>
-      </c>
-      <c r="C2" s="5" t="s">
-        <v>103</v>
-      </c>
-      <c r="D2" s="5" t="s">
-        <v>103</v>
-      </c>
-      <c r="E2" s="12"/>
-      <c r="F2" s="5" t="s">
-        <v>103</v>
-      </c>
-    </row>
-    <row r="3" spans="1:6" ht="28.5" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A3" s="38" t="s">
-        <v>264</v>
-      </c>
-      <c r="B3" s="12"/>
-      <c r="C3" s="25" t="s">
-        <v>215</v>
-      </c>
-      <c r="D3" s="12"/>
-      <c r="E3" s="5" t="s">
-        <v>132</v>
-      </c>
-      <c r="F3" s="25" t="s">
-        <v>215</v>
-      </c>
-    </row>
-    <row r="4" spans="1:6" ht="28.5" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A4" s="38" t="s">
-        <v>265</v>
-      </c>
-      <c r="B4" s="5" t="s">
-        <v>133</v>
-      </c>
-      <c r="C4" s="12"/>
-      <c r="D4" s="25" t="s">
-        <v>215</v>
-      </c>
-      <c r="E4" s="25" t="s">
-        <v>215</v>
-      </c>
-      <c r="F4" s="12"/>
-    </row>
-    <row r="5" spans="1:6" ht="28.5" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A5" s="38" t="s">
-        <v>266</v>
-      </c>
-      <c r="B5" s="7" t="s">
-        <v>18</v>
-      </c>
-      <c r="C5" s="7" t="s">
-        <v>18</v>
-      </c>
-      <c r="D5" s="7" t="s">
-        <v>18</v>
-      </c>
-      <c r="E5" s="7" t="s">
-        <v>18</v>
-      </c>
-      <c r="F5" s="7" t="s">
-        <v>18</v>
-      </c>
-    </row>
-    <row r="6" spans="1:6" ht="28.5" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A6" s="38" t="s">
-        <v>267</v>
-      </c>
-      <c r="B6" s="12"/>
-      <c r="C6" s="25" t="s">
-        <v>215</v>
-      </c>
-      <c r="D6" s="12"/>
-      <c r="E6" s="12"/>
-      <c r="F6" s="5" t="s">
-        <v>68</v>
-      </c>
-    </row>
-    <row r="7" spans="1:6" ht="28.5" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A7" s="38" t="s">
-        <v>268</v>
-      </c>
-      <c r="B7" s="5" t="s">
-        <v>103</v>
-      </c>
-      <c r="C7" s="12"/>
-      <c r="D7" s="12"/>
-      <c r="E7" s="5" t="s">
-        <v>68</v>
-      </c>
-      <c r="F7" s="5" t="s">
-        <v>110</v>
-      </c>
-    </row>
-    <row r="8" spans="1:6" ht="28.5" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A8" s="38" t="s">
-        <v>269</v>
-      </c>
-      <c r="B8" s="16" t="s">
-        <v>162</v>
-      </c>
-      <c r="C8" s="5" t="s">
-        <v>138</v>
-      </c>
-      <c r="D8" s="5" t="s">
-        <v>115</v>
-      </c>
-      <c r="E8" s="5" t="s">
-        <v>103</v>
-      </c>
-      <c r="F8" s="5" t="s">
-        <v>116</v>
-      </c>
-    </row>
-    <row r="9" spans="1:6" ht="28.5" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A9" s="38" t="s">
-        <v>270</v>
-      </c>
-      <c r="B9" s="7" t="s">
-        <v>18</v>
-      </c>
-      <c r="C9" s="7" t="s">
-        <v>18</v>
-      </c>
-      <c r="D9" s="7" t="s">
-        <v>18</v>
-      </c>
-      <c r="E9" s="7" t="s">
-        <v>18</v>
-      </c>
-      <c r="F9" s="7" t="s">
-        <v>18</v>
-      </c>
-    </row>
-    <row r="10" spans="1:6" ht="28.5" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A10" s="38" t="s">
-        <v>271</v>
-      </c>
-      <c r="B10" s="5" t="s">
-        <v>138</v>
-      </c>
-      <c r="C10" s="5" t="s">
-        <v>160</v>
-      </c>
-      <c r="D10" s="5" t="s">
-        <v>160</v>
-      </c>
-      <c r="E10" s="5" t="s">
-        <v>93</v>
-      </c>
-      <c r="F10" s="5" t="s">
-        <v>133</v>
-      </c>
-    </row>
-    <row r="11" spans="1:6" ht="28.5" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A11" s="38" t="s">
-        <v>272</v>
-      </c>
-      <c r="B11" s="22" t="s">
-        <v>213</v>
-      </c>
-      <c r="C11" s="12"/>
-      <c r="D11" s="12"/>
-      <c r="E11" s="44" t="s">
-        <v>116</v>
-      </c>
-      <c r="F11" s="12"/>
-    </row>
-    <row r="12" spans="1:6" ht="28.5" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A12" s="38" t="s">
-        <v>273</v>
-      </c>
-      <c r="B12" s="12"/>
-      <c r="C12" s="5" t="s">
-        <v>116</v>
-      </c>
-      <c r="D12" s="5" t="s">
-        <v>138</v>
-      </c>
-      <c r="E12" s="45"/>
-      <c r="F12" s="25" t="s">
-        <v>215</v>
-      </c>
-    </row>
-    <row r="13" spans="1:6" ht="32.25" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A13" s="38" t="s">
-        <v>274</v>
-      </c>
-      <c r="B13" s="7" t="s">
-        <v>18</v>
-      </c>
-      <c r="C13" s="7" t="s">
-        <v>18</v>
-      </c>
-      <c r="D13" s="7" t="s">
-        <v>18</v>
-      </c>
-      <c r="E13" s="7" t="s">
-        <v>18</v>
-      </c>
-      <c r="F13" s="7" t="s">
-        <v>18</v>
-      </c>
-    </row>
-    <row r="14" spans="1:6" ht="33" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A14" s="38" t="s">
-        <v>275</v>
-      </c>
-      <c r="B14" s="5" t="s">
-        <v>116</v>
-      </c>
-      <c r="C14" s="25" t="s">
-        <v>215</v>
-      </c>
-      <c r="D14" s="5" t="s">
-        <v>138</v>
-      </c>
-      <c r="E14" s="25"/>
-      <c r="F14" s="25" t="s">
-        <v>215</v>
-      </c>
-    </row>
-    <row r="15" spans="1:6" ht="28.5" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A15" s="38" t="s">
-        <v>276</v>
-      </c>
-      <c r="B15" s="5" t="s">
-        <v>148</v>
-      </c>
-      <c r="C15" s="12"/>
-      <c r="D15" s="12"/>
-      <c r="E15" s="12"/>
-      <c r="F15" s="12"/>
-    </row>
-    <row r="16" spans="1:6" ht="33" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A16" s="38" t="s">
-        <v>277</v>
-      </c>
-      <c r="B16" s="12"/>
-      <c r="C16" s="5" t="s">
-        <v>93</v>
-      </c>
-      <c r="D16" s="5" t="s">
-        <v>148</v>
-      </c>
-      <c r="E16" s="5" t="s">
-        <v>149</v>
-      </c>
-      <c r="F16" s="5" t="s">
-        <v>138</v>
-      </c>
-    </row>
-  </sheetData>
-  <mergeCells count="1">
-    <mergeCell ref="E11:E12"/>
-  </mergeCells>
-  <pageMargins left="0.25" right="0.25" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-  <pageSetup orientation="landscape" horizontalDpi="0" verticalDpi="0" r:id="rId1"/>
-</worksheet>
-</file>
-
-<file path=xl/worksheets/sheet24.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-1700-000000000000}">
-  <dimension ref="A1:F16"/>
-  <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="A2" sqref="A2:A16"/>
-    </sheetView>
-  </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultColWidth="9.33203125" defaultRowHeight="12.75" x14ac:dyDescent="0.2"/>
-  <cols>
-    <col min="1" max="1" width="10.83203125" bestFit="1" customWidth="1"/>
-    <col min="2" max="2" width="25.33203125" customWidth="1"/>
-    <col min="3" max="3" width="24.33203125" customWidth="1"/>
-    <col min="4" max="4" width="25" customWidth="1"/>
-    <col min="5" max="5" width="27.1640625" customWidth="1"/>
-    <col min="6" max="6" width="27.5" customWidth="1"/>
-  </cols>
-  <sheetData>
-    <row r="1" spans="1:6" ht="18.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A1" s="28" t="s">
-        <v>172</v>
-      </c>
-      <c r="B1" s="19" t="s">
-        <v>164</v>
-      </c>
-      <c r="C1" s="19" t="s">
-        <v>165</v>
-      </c>
-      <c r="D1" s="19" t="s">
-        <v>168</v>
-      </c>
-      <c r="E1" s="19" t="s">
-        <v>166</v>
-      </c>
-      <c r="F1" s="19" t="s">
-        <v>167</v>
-      </c>
-    </row>
-    <row r="2" spans="1:6" ht="28.5" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A2" s="38" t="s">
-        <v>263</v>
-      </c>
-      <c r="B2" s="5" t="s">
-        <v>7</v>
-      </c>
-      <c r="C2" s="25" t="s">
-        <v>215</v>
-      </c>
-      <c r="D2" s="5" t="s">
-        <v>7</v>
-      </c>
-      <c r="E2" s="8" t="s">
-        <v>62</v>
-      </c>
-      <c r="F2" s="9" t="s">
-        <v>77</v>
-      </c>
-    </row>
-    <row r="3" spans="1:6" ht="28.5" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A3" s="38" t="s">
-        <v>264</v>
-      </c>
-      <c r="B3" s="8" t="s">
-        <v>78</v>
-      </c>
-      <c r="C3" s="22" t="s">
-        <v>209</v>
-      </c>
-      <c r="D3" s="12"/>
-      <c r="E3" s="22"/>
-      <c r="F3" s="12"/>
-    </row>
-    <row r="4" spans="1:6" ht="28.5" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A4" s="38" t="s">
-        <v>265</v>
-      </c>
-      <c r="B4" s="12"/>
-      <c r="C4" s="12"/>
-      <c r="D4" s="12"/>
-      <c r="E4" s="14" t="s">
-        <v>134</v>
-      </c>
-      <c r="F4" s="12"/>
-    </row>
-    <row r="5" spans="1:6" ht="28.5" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A5" s="38" t="s">
-        <v>266</v>
-      </c>
-      <c r="B5" s="7" t="s">
-        <v>18</v>
-      </c>
-      <c r="C5" s="7" t="s">
-        <v>18</v>
-      </c>
-      <c r="D5" s="7" t="s">
-        <v>18</v>
-      </c>
-      <c r="E5" s="7" t="s">
-        <v>18</v>
-      </c>
-      <c r="F5" s="7" t="s">
-        <v>18</v>
-      </c>
-    </row>
-    <row r="6" spans="1:6" ht="28.5" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A6" s="38" t="s">
-        <v>267</v>
-      </c>
-      <c r="B6" s="6" t="s">
-        <v>83</v>
-      </c>
-      <c r="C6" s="12"/>
-      <c r="D6" s="12"/>
-      <c r="E6" s="5" t="s">
-        <v>20</v>
-      </c>
-      <c r="F6" s="6" t="s">
-        <v>83</v>
-      </c>
-    </row>
-    <row r="7" spans="1:6" ht="36" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A7" s="38" t="s">
-        <v>268</v>
-      </c>
-      <c r="B7" s="22" t="s">
-        <v>214</v>
-      </c>
-      <c r="C7" s="6" t="s">
-        <v>69</v>
-      </c>
-      <c r="D7" s="5" t="s">
-        <v>20</v>
-      </c>
-      <c r="E7" s="12"/>
-      <c r="F7" s="12"/>
-    </row>
-    <row r="8" spans="1:6" ht="28.5" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A8" s="38" t="s">
-        <v>269</v>
-      </c>
-      <c r="B8" s="16" t="s">
-        <v>162</v>
-      </c>
-      <c r="C8" s="6" t="s">
-        <v>88</v>
-      </c>
-      <c r="D8" s="8" t="s">
-        <v>89</v>
-      </c>
-      <c r="E8" s="8" t="s">
-        <v>89</v>
-      </c>
-      <c r="F8" s="6" t="s">
-        <v>69</v>
-      </c>
-    </row>
-    <row r="9" spans="1:6" ht="28.5" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A9" s="38" t="s">
-        <v>270</v>
-      </c>
-      <c r="B9" s="7" t="s">
-        <v>18</v>
-      </c>
-      <c r="C9" s="7" t="s">
-        <v>18</v>
-      </c>
-      <c r="D9" s="7" t="s">
-        <v>18</v>
-      </c>
-      <c r="E9" s="7" t="s">
-        <v>18</v>
-      </c>
-      <c r="F9" s="7" t="s">
-        <v>18</v>
-      </c>
-    </row>
-    <row r="10" spans="1:6" ht="32.25" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A10" s="38" t="s">
-        <v>271</v>
-      </c>
-      <c r="B10" s="9" t="s">
-        <v>77</v>
-      </c>
-      <c r="C10" s="5" t="s">
-        <v>134</v>
-      </c>
-      <c r="D10" s="6" t="s">
-        <v>88</v>
-      </c>
-      <c r="E10" s="8" t="s">
-        <v>78</v>
-      </c>
-      <c r="F10" s="8" t="s">
-        <v>62</v>
-      </c>
-    </row>
-    <row r="11" spans="1:6" ht="28.5" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A11" s="38" t="s">
-        <v>272</v>
-      </c>
-      <c r="B11" s="12"/>
-      <c r="C11" s="25"/>
-      <c r="D11" s="25" t="s">
-        <v>215</v>
-      </c>
-      <c r="E11" s="12"/>
-      <c r="F11" s="22" t="s">
-        <v>210</v>
-      </c>
-    </row>
-    <row r="12" spans="1:6" ht="28.5" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A12" s="38" t="s">
-        <v>273</v>
-      </c>
-      <c r="B12" s="22" t="s">
-        <v>212</v>
-      </c>
-      <c r="C12" s="26" t="s">
-        <v>208</v>
-      </c>
-      <c r="D12" s="12"/>
-      <c r="E12" s="14" t="s">
-        <v>146</v>
-      </c>
-      <c r="F12" s="25" t="s">
-        <v>215</v>
-      </c>
-    </row>
-    <row r="13" spans="1:6" ht="28.5" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A13" s="38" t="s">
-        <v>274</v>
-      </c>
-      <c r="B13" s="7" t="s">
-        <v>18</v>
-      </c>
-      <c r="C13" s="7" t="s">
-        <v>18</v>
-      </c>
-      <c r="D13" s="7" t="s">
-        <v>18</v>
-      </c>
-      <c r="E13" s="7" t="s">
-        <v>18</v>
-      </c>
-      <c r="F13" s="7" t="s">
-        <v>18</v>
-      </c>
-    </row>
-    <row r="14" spans="1:6" ht="28.5" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A14" s="38" t="s">
-        <v>275</v>
-      </c>
-      <c r="B14" s="12"/>
-      <c r="C14" s="4" t="s">
-        <v>56</v>
-      </c>
-      <c r="D14" s="12"/>
-      <c r="E14" s="25" t="s">
-        <v>215</v>
-      </c>
-      <c r="F14" s="8" t="s">
-        <v>45</v>
-      </c>
-    </row>
-    <row r="15" spans="1:6" ht="30.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A15" s="38" t="s">
-        <v>276</v>
-      </c>
-      <c r="B15" s="8" t="s">
-        <v>45</v>
-      </c>
-      <c r="C15" s="12"/>
-      <c r="D15" s="4" t="s">
-        <v>56</v>
-      </c>
-      <c r="E15" s="12"/>
-      <c r="F15" s="12"/>
-    </row>
-    <row r="16" spans="1:6" ht="39" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A16" s="38" t="s">
-        <v>277</v>
-      </c>
-      <c r="B16" s="4" t="s">
-        <v>46</v>
-      </c>
-      <c r="C16" s="14" t="s">
-        <v>146</v>
-      </c>
-      <c r="D16" s="12"/>
-      <c r="E16" s="12"/>
-      <c r="F16" s="4" t="s">
-        <v>46</v>
       </c>
     </row>
   </sheetData>
